--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_10_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_10_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2936286.410167296</v>
+        <v>2931455.610655247</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2711628.07464963</v>
+        <v>2711628.074649628</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>911756.9728896299</v>
+        <v>911756.9728896301</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="F2" t="n">
         <v>10.5193474360557</v>
@@ -715,7 +715,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="U2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="T3" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -819,50 +819,50 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="D4" t="n">
+        <v>10.5193474360557</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="W4" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="X4" t="n">
-        <v>10.5193474360557</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10.5193474360557</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -983,52 +983,52 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="H6" t="n">
+      <c r="T6" t="n">
         <v>10.5193474360557</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.5193474360557</v>
+      </c>
+      <c r="F7" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="I7" t="n">
-        <v>10.5193474360557</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.5193474360557</v>
+      </c>
+      <c r="E8" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10.5193474360557</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>11.94294668035388</v>
@@ -1217,58 +1217,58 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="S9" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="T9" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="U9" t="n">
         <v>10.5193474360557</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="F9" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>11.94294668035388</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>288.0511261499432</v>
       </c>
       <c r="C11" t="n">
-        <v>211.4284362282564</v>
+        <v>271.9655311585463</v>
       </c>
       <c r="D11" t="n">
-        <v>267.0437471521529</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>288.7858847220584</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>309.3301514203407</v>
       </c>
       <c r="H11" t="n">
         <v>221.6976136440768</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.41614036880195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>117.6084011590467</v>
       </c>
       <c r="U11" t="n">
-        <v>150.2396395672808</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>231.5575033901223</v>
@@ -1469,7 +1469,7 @@
         <v>96.04049522805811</v>
       </c>
       <c r="I12" t="n">
-        <v>57.36732183100854</v>
+        <v>57.36732183100855</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>40.5561552988999</v>
+        <v>40.55615529889991</v>
       </c>
       <c r="S12" t="n">
         <v>145.6979404549165</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.66783702464028</v>
+        <v>79.66783702464026</v>
       </c>
       <c r="C13" t="n">
-        <v>65.86783187004076</v>
+        <v>65.86783187004075</v>
       </c>
       <c r="D13" t="n">
-        <v>49.48919626761915</v>
+        <v>49.48919626761914</v>
       </c>
       <c r="E13" t="n">
-        <v>48.4369461233986</v>
+        <v>48.43694612339858</v>
       </c>
       <c r="F13" t="n">
-        <v>48.90387045158491</v>
+        <v>48.90387045158489</v>
       </c>
       <c r="G13" t="n">
-        <v>64.9270098447565</v>
+        <v>64.92700984475648</v>
       </c>
       <c r="H13" t="n">
-        <v>53.49031411420174</v>
+        <v>53.49031411420172</v>
       </c>
       <c r="I13" t="n">
-        <v>33.143840620389</v>
+        <v>33.14384062038899</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.66338358832746</v>
+        <v>34.66338358832729</v>
       </c>
       <c r="S13" t="n">
         <v>105.1366242691459</v>
@@ -1587,7 +1587,7 @@
         <v>182.2526375068136</v>
       </c>
       <c r="V13" t="n">
-        <v>156.0759734242659</v>
+        <v>156.0759734242658</v>
       </c>
       <c r="W13" t="n">
         <v>181.2428594948791</v>
@@ -1609,22 +1609,22 @@
         <v>288.0511261499432</v>
       </c>
       <c r="C14" t="n">
-        <v>276.062443107625</v>
+        <v>276.0624431076249</v>
       </c>
       <c r="D14" t="n">
-        <v>267.0437471521529</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>224.1518778426897</v>
+        <v>288.7858847220584</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>307.9577008100356</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>309.3301514203407</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6976136440768</v>
+        <v>74.66754241281107</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>70.52508371286567</v>
       </c>
       <c r="T14" t="n">
-        <v>117.6084011590467</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>150.2396395672808</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>231.5575033901223</v>
@@ -1706,7 +1706,7 @@
         <v>96.04049522805811</v>
       </c>
       <c r="I15" t="n">
-        <v>57.36732183100854</v>
+        <v>57.36732183100855</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.5561552988999</v>
+        <v>40.55615529889991</v>
       </c>
       <c r="S15" t="n">
         <v>145.6979404549165</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.66783702464028</v>
+        <v>79.66783702464026</v>
       </c>
       <c r="C16" t="n">
-        <v>65.86783187004076</v>
+        <v>65.86783187004075</v>
       </c>
       <c r="D16" t="n">
-        <v>49.48919626761915</v>
+        <v>49.48919626761914</v>
       </c>
       <c r="E16" t="n">
-        <v>48.4369461233986</v>
+        <v>48.43694612339858</v>
       </c>
       <c r="F16" t="n">
-        <v>48.90387045158491</v>
+        <v>48.90387045158489</v>
       </c>
       <c r="G16" t="n">
         <v>64.9270098447565</v>
       </c>
       <c r="H16" t="n">
-        <v>53.49031411420174</v>
+        <v>53.49031411420172</v>
       </c>
       <c r="I16" t="n">
-        <v>33.143840620389</v>
+        <v>33.14384062038899</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>34.66338358832746</v>
       </c>
       <c r="S16" t="n">
-        <v>105.1366242691456</v>
+        <v>105.1366242691459</v>
       </c>
       <c r="T16" t="n">
-        <v>127.7203241864656</v>
+        <v>127.7203241864655</v>
       </c>
       <c r="U16" t="n">
-        <v>182.2526375068136</v>
+        <v>182.252637506813</v>
       </c>
       <c r="V16" t="n">
-        <v>156.0759734242659</v>
+        <v>156.0759734242658</v>
       </c>
       <c r="W16" t="n">
         <v>181.2428594948791</v>
@@ -1852,13 +1852,13 @@
         <v>218.3350429300282</v>
       </c>
       <c r="E17" t="n">
-        <v>240.077180499934</v>
+        <v>240.0771804999337</v>
       </c>
       <c r="F17" t="n">
         <v>259.2489965879109</v>
       </c>
       <c r="G17" t="n">
-        <v>260.6214471982161</v>
+        <v>260.6214471982163</v>
       </c>
       <c r="H17" t="n">
         <v>172.9889094219521</v>
@@ -1943,7 +1943,7 @@
         <v>96.04049522805811</v>
       </c>
       <c r="I18" t="n">
-        <v>57.36732183100854</v>
+        <v>57.36732183100855</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>16.2183056226318</v>
       </c>
       <c r="H19" t="n">
-        <v>11.65860836770099</v>
+        <v>4.781609892077019</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>56.4279200470212</v>
+        <v>63.30491852264511</v>
       </c>
       <c r="T19" t="n">
         <v>79.01161996434085</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>21.81637949074094</v>
+        <v>21.81637949074093</v>
       </c>
       <c r="T20" t="n">
         <v>68.89969693692196</v>
       </c>
       <c r="U20" t="n">
-        <v>101.530935345156</v>
+        <v>101.5309353451567</v>
       </c>
       <c r="V20" t="n">
-        <v>182.8487991679985</v>
+        <v>182.8487991679976</v>
       </c>
       <c r="W20" t="n">
         <v>208.1488986459545</v>
@@ -2374,7 +2374,7 @@
         <v>68.89969693692196</v>
       </c>
       <c r="U23" t="n">
-        <v>101.5309353451576</v>
+        <v>101.5309353451571</v>
       </c>
       <c r="V23" t="n">
         <v>182.8487991679976</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.95913280251554</v>
+        <v>37.83613127813995</v>
       </c>
       <c r="C25" t="n">
         <v>17.15912764791602</v>
@@ -2490,7 +2490,7 @@
         <v>0.1951662294601704</v>
       </c>
       <c r="G25" t="n">
-        <v>23.09530409825618</v>
+        <v>16.21830562263177</v>
       </c>
       <c r="H25" t="n">
         <v>4.78160989207699</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59.3843840743959</v>
+        <v>288.0511261499432</v>
       </c>
       <c r="C26" t="n">
         <v>276.062443107625</v>
@@ -2563,19 +2563,19 @@
         <v>267.0437471521529</v>
       </c>
       <c r="E26" t="n">
-        <v>288.7858847220585</v>
+        <v>288.7858847220584</v>
       </c>
       <c r="F26" t="n">
         <v>307.9577008100356</v>
       </c>
       <c r="G26" t="n">
-        <v>309.3301514203408</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>221.6976136440768</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>47.41614036880195</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.52508371286571</v>
+        <v>70.52508371286568</v>
       </c>
       <c r="T26" t="n">
         <v>117.6084011590467</v>
@@ -2614,16 +2614,16 @@
         <v>150.2396395672808</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>231.5575033901223</v>
       </c>
       <c r="W26" t="n">
-        <v>256.8576028680793</v>
+        <v>124.4042137068973</v>
       </c>
       <c r="X26" t="n">
-        <v>276.1578611008259</v>
+        <v>276.1578611008258</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.5544588970246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.66783702464031</v>
+        <v>79.66783702464028</v>
       </c>
       <c r="C28" t="n">
-        <v>65.86783187004079</v>
+        <v>65.86783187004076</v>
       </c>
       <c r="D28" t="n">
-        <v>49.48919626761918</v>
+        <v>49.48919626761915</v>
       </c>
       <c r="E28" t="n">
-        <v>48.43694612339863</v>
+        <v>48.4369461233986</v>
       </c>
       <c r="F28" t="n">
-        <v>48.90387045158494</v>
+        <v>48.90387045158491</v>
       </c>
       <c r="G28" t="n">
-        <v>64.92700984475653</v>
+        <v>64.9270098447565</v>
       </c>
       <c r="H28" t="n">
-        <v>53.49031411420177</v>
+        <v>53.49031411420174</v>
       </c>
       <c r="I28" t="n">
-        <v>33.14384062038921</v>
+        <v>33.143840620389</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66338358832749</v>
+        <v>34.66338358832729</v>
       </c>
       <c r="S28" t="n">
         <v>105.1366242691459</v>
       </c>
       <c r="T28" t="n">
-        <v>127.7203241864656</v>
+        <v>127.7203241864661</v>
       </c>
       <c r="U28" t="n">
-        <v>182.2526375068124</v>
+        <v>182.252637506813</v>
       </c>
       <c r="V28" t="n">
         <v>156.0759734242659</v>
       </c>
       <c r="W28" t="n">
-        <v>181.2428594948792</v>
+        <v>181.2428594948791</v>
       </c>
       <c r="X28" t="n">
-        <v>126.8879614906823</v>
+        <v>126.8879614906822</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.76282924675</v>
+        <v>117.7628292467499</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>288.0511261499432</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>276.062443107625</v>
@@ -2800,19 +2800,19 @@
         <v>267.0437471521529</v>
       </c>
       <c r="E29" t="n">
-        <v>288.7858847220584</v>
+        <v>288.7858847220585</v>
       </c>
       <c r="F29" t="n">
-        <v>157.0636067647076</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>309.3301514203408</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>221.6976136440769</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>47.41614036880198</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.52508371286568</v>
+        <v>70.52508371286571</v>
       </c>
       <c r="T29" t="n">
         <v>117.6084011590467</v>
       </c>
       <c r="U29" t="n">
-        <v>150.2396395672808</v>
+        <v>16.91046704871111</v>
       </c>
       <c r="V29" t="n">
         <v>231.5575033901223</v>
       </c>
       <c r="W29" t="n">
-        <v>256.8576028680792</v>
+        <v>256.8576028680793</v>
       </c>
       <c r="X29" t="n">
-        <v>276.1578611008258</v>
+        <v>276.1578611008259</v>
       </c>
       <c r="Y29" t="n">
         <v>287.5544588970246</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.66783702464028</v>
+        <v>79.66783702464031</v>
       </c>
       <c r="C31" t="n">
-        <v>65.86783187004076</v>
+        <v>65.86783187004079</v>
       </c>
       <c r="D31" t="n">
-        <v>49.48919626761915</v>
+        <v>49.48919626761918</v>
       </c>
       <c r="E31" t="n">
-        <v>48.4369461233986</v>
+        <v>48.43694612339863</v>
       </c>
       <c r="F31" t="n">
-        <v>48.90387045158491</v>
+        <v>48.90387045158494</v>
       </c>
       <c r="G31" t="n">
-        <v>64.9270098447565</v>
+        <v>64.92700984475653</v>
       </c>
       <c r="H31" t="n">
-        <v>53.49031411420174</v>
+        <v>53.49031411420177</v>
       </c>
       <c r="I31" t="n">
-        <v>33.143840620389</v>
+        <v>33.14384062038903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66338358832746</v>
+        <v>34.66338358832749</v>
       </c>
       <c r="S31" t="n">
         <v>105.1366242691459</v>
@@ -3006,19 +3006,19 @@
         <v>127.7203241864656</v>
       </c>
       <c r="U31" t="n">
-        <v>182.2526375068136</v>
+        <v>182.2526375068129</v>
       </c>
       <c r="V31" t="n">
         <v>156.0759734242659</v>
       </c>
       <c r="W31" t="n">
-        <v>181.2428594948791</v>
+        <v>181.2428594948792</v>
       </c>
       <c r="X31" t="n">
-        <v>126.8879614906822</v>
+        <v>126.8879614906823</v>
       </c>
       <c r="Y31" t="n">
-        <v>117.7628292467499</v>
+        <v>117.76282924675</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>68.89969693692194</v>
       </c>
       <c r="U32" t="n">
-        <v>101.5309353451562</v>
+        <v>101.5309353451567</v>
       </c>
       <c r="V32" t="n">
         <v>182.8487991679976</v>
@@ -3201,7 +3201,7 @@
         <v>0.1951662294601419</v>
       </c>
       <c r="G34" t="n">
-        <v>23.09530409825651</v>
+        <v>16.21830562263174</v>
       </c>
       <c r="H34" t="n">
         <v>4.781609892076962</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>56.42792004702114</v>
+        <v>63.30491852264579</v>
       </c>
       <c r="T34" t="n">
         <v>79.0116199643408</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>21.81637949074094</v>
+        <v>21.81637949074132</v>
       </c>
       <c r="T35" t="n">
-        <v>68.89969693692196</v>
+        <v>68.89969693692197</v>
       </c>
       <c r="U35" t="n">
         <v>101.5309353451567</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>56.42792004702117</v>
+        <v>63.30491852264556</v>
       </c>
       <c r="T37" t="n">
         <v>79.01161996434082</v>
@@ -3492,7 +3492,7 @@
         <v>78.17925726855751</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.93112350025027</v>
+        <v>69.05412502462519</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>239.3424219278185</v>
+        <v>239.3424219278184</v>
       </c>
       <c r="C38" t="n">
         <v>227.3537388855002</v>
@@ -3514,10 +3514,10 @@
         <v>240.0771804999337</v>
       </c>
       <c r="F38" t="n">
-        <v>259.2489965879109</v>
+        <v>259.2489965879108</v>
       </c>
       <c r="G38" t="n">
-        <v>260.621447198216</v>
+        <v>260.6214471982159</v>
       </c>
       <c r="H38" t="n">
         <v>172.9889094219521</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>21.81637949074093</v>
+        <v>21.8163794907409</v>
       </c>
       <c r="T38" t="n">
-        <v>68.89969693692197</v>
+        <v>68.89969693692194</v>
       </c>
       <c r="U38" t="n">
-        <v>101.5309353451562</v>
+        <v>101.5309353451567</v>
       </c>
       <c r="V38" t="n">
         <v>182.8487991679976</v>
@@ -3571,7 +3571,7 @@
         <v>227.4491568787011</v>
       </c>
       <c r="Y38" t="n">
-        <v>238.8457546748999</v>
+        <v>238.8457546748998</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>40.55615529889991</v>
+        <v>40.5561552988999</v>
       </c>
       <c r="S39" t="n">
         <v>145.6979404549165</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.95913280251554</v>
+        <v>30.95913280251551</v>
       </c>
       <c r="C40" t="n">
-        <v>17.15912764791602</v>
+        <v>17.15912764791599</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7804920454944124</v>
+        <v>0.780492045494384</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1951662294601704</v>
+        <v>0.1951662294601419</v>
       </c>
       <c r="G40" t="n">
-        <v>16.21830562263177</v>
+        <v>16.21830562263174</v>
       </c>
       <c r="H40" t="n">
-        <v>4.781609892076991</v>
+        <v>4.781609892076962</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3705,31 +3705,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>6.876998475624651</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.42792004702117</v>
+        <v>56.42792004702114</v>
       </c>
       <c r="T40" t="n">
-        <v>79.01161996434082</v>
+        <v>79.0116199643408</v>
       </c>
       <c r="U40" t="n">
         <v>133.5439332846883</v>
       </c>
       <c r="V40" t="n">
-        <v>114.2442676777655</v>
+        <v>107.3672692021411</v>
       </c>
       <c r="W40" t="n">
         <v>132.5341552727544</v>
       </c>
       <c r="X40" t="n">
-        <v>78.17925726855751</v>
+        <v>78.17925726855748</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.05412502462519</v>
+        <v>69.05412502462516</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>292.6856956785895</v>
       </c>
       <c r="C41" t="n">
-        <v>280.6970126362712</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>271.6783166807992</v>
       </c>
       <c r="E41" t="n">
         <v>293.4204542507047</v>
       </c>
       <c r="F41" t="n">
-        <v>312.5922703386818</v>
+        <v>312.5922703386819</v>
       </c>
       <c r="G41" t="n">
         <v>313.964720948987</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>226.3321831727231</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>31.5754254409713</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>75.15965324151193</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>122.2429706876929</v>
       </c>
       <c r="U41" t="n">
-        <v>103.4815003678609</v>
+        <v>154.874209095927</v>
       </c>
       <c r="V41" t="n">
-        <v>236.1920729187686</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>261.4921723967254</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>280.7924306294721</v>
       </c>
       <c r="Y41" t="n">
-        <v>292.1890284256708</v>
+        <v>292.1890284256709</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>40.55615529889991</v>
+        <v>40.5561552988999</v>
       </c>
       <c r="S42" t="n">
         <v>145.6979404549165</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.30240655328652</v>
+        <v>84.30240655328653</v>
       </c>
       <c r="C43" t="n">
-        <v>70.502401398687</v>
+        <v>70.50240139868701</v>
       </c>
       <c r="D43" t="n">
-        <v>54.12376579626539</v>
+        <v>54.1237657962654</v>
       </c>
       <c r="E43" t="n">
-        <v>19.65603369950483</v>
+        <v>53.07151565204485</v>
       </c>
       <c r="F43" t="n">
-        <v>53.53843998023115</v>
+        <v>53.53843998023116</v>
       </c>
       <c r="G43" t="n">
-        <v>69.56157937340275</v>
+        <v>69.56157937340276</v>
       </c>
       <c r="H43" t="n">
-        <v>58.12488364284797</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>39.29795311697373</v>
       </c>
       <c r="S43" t="n">
         <v>109.7711937977922</v>
@@ -3966,7 +3966,7 @@
         <v>131.5225310193285</v>
       </c>
       <c r="Y43" t="n">
-        <v>122.3973987753962</v>
+        <v>107.8088473487301</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>292.6856956785895</v>
+        <v>292.6856956785894</v>
       </c>
       <c r="C44" t="n">
         <v>280.6970126362712</v>
       </c>
       <c r="D44" t="n">
-        <v>271.6783166807992</v>
+        <v>98.95692690541296</v>
       </c>
       <c r="E44" t="n">
         <v>293.4204542507047</v>
       </c>
       <c r="F44" t="n">
-        <v>312.5922703386819</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>313.964720948987</v>
       </c>
       <c r="H44" t="n">
-        <v>226.3321831727231</v>
+        <v>226.332183172723</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>75.1596532415119</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>122.2429706876929</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>154.874209095927</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>236.1920729187685</v>
       </c>
       <c r="W44" t="n">
-        <v>103.1552458298326</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>280.7924306294721</v>
       </c>
       <c r="Y44" t="n">
-        <v>292.1890284256709</v>
+        <v>292.1890284256708</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>40.55615529889991</v>
+        <v>40.5561552988999</v>
       </c>
       <c r="S45" t="n">
         <v>145.6979404549165</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84.30240655328654</v>
+        <v>84.3024065532865</v>
       </c>
       <c r="C46" t="n">
-        <v>70.50240139868703</v>
+        <v>70.50240139868698</v>
       </c>
       <c r="D46" t="n">
-        <v>54.12376579626542</v>
+        <v>54.12376579626537</v>
       </c>
       <c r="E46" t="n">
-        <v>53.07151565204487</v>
+        <v>53.07151565204482</v>
       </c>
       <c r="F46" t="n">
-        <v>53.53843998023117</v>
+        <v>53.53843998023113</v>
       </c>
       <c r="G46" t="n">
-        <v>69.56157937340278</v>
+        <v>69.56157937340274</v>
       </c>
       <c r="H46" t="n">
-        <v>24.70940169030661</v>
+        <v>58.12488364284795</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>109.7711937977922</v>
+        <v>109.7711937977921</v>
       </c>
       <c r="T46" t="n">
-        <v>132.3548937151118</v>
+        <v>98.93941176257213</v>
       </c>
       <c r="U46" t="n">
-        <v>186.8872070354593</v>
+        <v>186.8872070354592</v>
       </c>
       <c r="V46" t="n">
         <v>160.7105429529121</v>
       </c>
       <c r="W46" t="n">
-        <v>185.8774290235254</v>
+        <v>185.8774290235253</v>
       </c>
       <c r="X46" t="n">
         <v>131.5225310193285</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="C2" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="D2" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="E2" t="n">
         <v>23.64462171059961</v>
@@ -4330,25 +4330,25 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="N2" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="O2" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="P2" t="n">
-        <v>36.42598737507935</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="Q2" t="n">
         <v>47.77178672141554</v>
@@ -4363,19 +4363,19 @@
         <v>35.70820421600757</v>
       </c>
       <c r="U2" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V2" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W2" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X2" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9554357344283108</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F3" t="n">
         <v>0.9554357344283108</v>
@@ -4409,19 +4409,19 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J3" t="n">
-        <v>12.3012350807645</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="K3" t="n">
-        <v>12.3012350807645</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="L3" t="n">
-        <v>12.3012350807645</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="M3" t="n">
-        <v>12.3012350807645</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="N3" t="n">
-        <v>12.3012350807645</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="O3" t="n">
         <v>24.12475229431485</v>
@@ -4433,28 +4433,28 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R3" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="S3" t="n">
         <v>35.70820421600757</v>
       </c>
-      <c r="S3" t="n">
-        <v>23.64462171059961</v>
-      </c>
       <c r="T3" t="n">
-        <v>11.58103920519164</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.01901823983628</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="C4" t="n">
-        <v>13.01901823983628</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="D4" t="n">
         <v>0.9554357344283108</v>
@@ -4491,49 +4491,49 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K4" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="L4" t="n">
-        <v>24.60247016152901</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="M4" t="n">
-        <v>36.42598737507935</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="N4" t="n">
-        <v>36.42598737507935</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="O4" t="n">
-        <v>36.42598737507935</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P4" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="R4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V4" t="n">
         <v>35.70820421600757</v>
       </c>
       <c r="W4" t="n">
+        <v>35.70820421600757</v>
+      </c>
+      <c r="X4" t="n">
         <v>23.64462171059961</v>
       </c>
-      <c r="X4" t="n">
-        <v>13.01901823983628</v>
-      </c>
       <c r="Y4" t="n">
-        <v>13.01901823983628</v>
+        <v>23.64462171059961</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="C5" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="D5" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="E5" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="F5" t="n">
         <v>13.01901823983628</v>
@@ -4594,25 +4594,25 @@
         <v>47.77178672141554</v>
       </c>
       <c r="S5" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="T5" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="U5" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="V5" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="W5" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="X5" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="Y5" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="C6" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="D6" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="E6" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="F6" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="G6" t="n">
-        <v>11.58103920519164</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I6" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J6" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="K6" t="n">
         <v>12.77895294797866</v>
       </c>
       <c r="L6" t="n">
-        <v>12.77895294797866</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="M6" t="n">
-        <v>12.77895294797866</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="N6" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="O6" t="n">
-        <v>36.42598737507935</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P6" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="Q6" t="n">
         <v>47.77178672141554</v>
@@ -4673,25 +4673,25 @@
         <v>47.77178672141554</v>
       </c>
       <c r="S6" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T6" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U6" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="V6" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="W6" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="X6" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="Y6" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="C7" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="D7" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="E7" t="n">
-        <v>23.64462171059961</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="F7" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="G7" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="H7" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I7" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="J7" t="n">
         <v>0.9554357344283108</v>
@@ -4731,13 +4731,13 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="L7" t="n">
+        <v>0.9554357344283108</v>
+      </c>
+      <c r="M7" t="n">
         <v>12.3012350807645</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>24.12475229431485</v>
-      </c>
-      <c r="N7" t="n">
-        <v>35.94826950786519</v>
       </c>
       <c r="O7" t="n">
         <v>35.94826950786519</v>
@@ -4746,31 +4746,31 @@
         <v>47.77178672141554</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="R7" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="S7" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="T7" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="U7" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="V7" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="W7" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="X7" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Y7" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="C8" t="n">
-        <v>25.08260074524424</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="D8" t="n">
-        <v>25.08260074524424</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="E8" t="n">
         <v>25.08260074524424</v>
@@ -4804,16 +4804,16 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="K8" t="n">
-        <v>12.3012350807645</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="L8" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="M8" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="N8" t="n">
         <v>47.77178672141554</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="C9" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="D9" t="n">
-        <v>37.14618325065221</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="E9" t="n">
-        <v>25.08260074524424</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="F9" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="G9" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H9" t="n">
         <v>0.9554357344283108</v>
@@ -4883,52 +4883,52 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="L9" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="M9" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="N9" t="n">
+        <v>12.3012350807645</v>
+      </c>
+      <c r="O9" t="n">
         <v>24.12475229431485</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>35.94826950786519</v>
-      </c>
-      <c r="P9" t="n">
-        <v>47.77178672141554</v>
       </c>
       <c r="Q9" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S9" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="T9" t="n">
-        <v>47.77178672141554</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="U9" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="V9" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="W9" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="X9" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="Y9" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="C10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="E10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G10" t="n">
-        <v>37.14618325065221</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H10" t="n">
-        <v>25.08260074524424</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I10" t="n">
         <v>13.01901823983628</v>
@@ -4965,7 +4965,7 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="L10" t="n">
         <v>12.3012350807645</v>
@@ -4974,40 +4974,40 @@
         <v>24.12475229431485</v>
       </c>
       <c r="N10" t="n">
+        <v>24.12475229431485</v>
+      </c>
+      <c r="O10" t="n">
         <v>35.94826950786519</v>
-      </c>
-      <c r="O10" t="n">
-        <v>47.77178672141554</v>
       </c>
       <c r="P10" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="R10" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="S10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="T10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="U10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="V10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="W10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="X10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1053.933946901101</v>
+        <v>1205.691158585222</v>
       </c>
       <c r="C11" t="n">
-        <v>840.3698699028623</v>
+        <v>930.9785008493168</v>
       </c>
       <c r="D11" t="n">
-        <v>570.6287111633139</v>
+        <v>930.9785008493168</v>
       </c>
       <c r="E11" t="n">
-        <v>278.9257973026488</v>
+        <v>639.2755869886516</v>
       </c>
       <c r="F11" t="n">
-        <v>278.9257973026488</v>
+        <v>639.2755869886516</v>
       </c>
       <c r="G11" t="n">
-        <v>278.9257973026488</v>
+        <v>326.820888584267</v>
       </c>
       <c r="H11" t="n">
-        <v>54.9888138237834</v>
+        <v>102.8839051054015</v>
       </c>
       <c r="I11" t="n">
-        <v>54.9888138237834</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="J11" t="n">
-        <v>174.1100376568461</v>
+        <v>174.1100376568463</v>
       </c>
       <c r="K11" t="n">
-        <v>484.8750910679295</v>
+        <v>484.8750910679296</v>
       </c>
       <c r="L11" t="n">
-        <v>920.3766264492897</v>
+        <v>920.3766264492899</v>
       </c>
       <c r="M11" t="n">
         <v>1411.105655084268</v>
@@ -5056,37 +5056,37 @@
         <v>1888.504364049727</v>
       </c>
       <c r="O11" t="n">
-        <v>2287.055438170518</v>
+        <v>2287.055438170517</v>
       </c>
       <c r="P11" t="n">
-        <v>2595.052099266574</v>
+        <v>2595.052099266573</v>
       </c>
       <c r="Q11" t="n">
-        <v>2749.44069118917</v>
+        <v>2749.440691189169</v>
       </c>
       <c r="R11" t="n">
-        <v>2749.44069118917</v>
+        <v>2749.440691189169</v>
       </c>
       <c r="S11" t="n">
-        <v>2678.203232893346</v>
+        <v>2678.203232893345</v>
       </c>
       <c r="T11" t="n">
-        <v>2559.406868086228</v>
+        <v>2559.406868086227</v>
       </c>
       <c r="U11" t="n">
-        <v>2407.649656402106</v>
+        <v>2559.406868086227</v>
       </c>
       <c r="V11" t="n">
-        <v>2173.753188331275</v>
+        <v>2325.510400015397</v>
       </c>
       <c r="W11" t="n">
-        <v>1914.301064222105</v>
+        <v>2066.058275906226</v>
       </c>
       <c r="X11" t="n">
-        <v>1635.353729776826</v>
+        <v>1787.110941460947</v>
       </c>
       <c r="Y11" t="n">
-        <v>1344.894680385892</v>
+        <v>1496.651892070013</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>112.9356035520749</v>
       </c>
       <c r="I12" t="n">
-        <v>54.9888138237834</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="J12" t="n">
         <v>143.3089054803057</v>
       </c>
       <c r="K12" t="n">
-        <v>368.0573249175907</v>
+        <v>420.7686285343809</v>
       </c>
       <c r="L12" t="n">
-        <v>368.0573249175907</v>
+        <v>851.0909431968468</v>
       </c>
       <c r="M12" t="n">
-        <v>928.3596840347875</v>
+        <v>1411.393302314043</v>
       </c>
       <c r="N12" t="n">
-        <v>1516.88648237338</v>
+        <v>1999.920100652636</v>
       </c>
       <c r="O12" t="n">
-        <v>1979.765293243412</v>
+        <v>2175.456762724095</v>
       </c>
       <c r="P12" t="n">
-        <v>2338.587228896403</v>
+        <v>2534.278698377086</v>
       </c>
       <c r="Q12" t="n">
         <v>2534.278698377086</v>
@@ -5181,10 +5181,10 @@
         <v>356.3940435429247</v>
       </c>
       <c r="D13" t="n">
-        <v>306.4049564039155</v>
+        <v>306.4049564039154</v>
       </c>
       <c r="E13" t="n">
-        <v>257.4787481984624</v>
+        <v>257.4787481984623</v>
       </c>
       <c r="F13" t="n">
         <v>208.0808992574675</v>
@@ -5193,25 +5193,25 @@
         <v>142.4980610304407</v>
       </c>
       <c r="H13" t="n">
-        <v>88.46744071306522</v>
+        <v>88.4674407130652</v>
       </c>
       <c r="I13" t="n">
-        <v>54.9888138237834</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="J13" t="n">
         <v>114.7658445080201</v>
       </c>
       <c r="K13" t="n">
-        <v>278.3363044526608</v>
+        <v>278.3363044526607</v>
       </c>
       <c r="L13" t="n">
-        <v>517.0014420670345</v>
+        <v>517.0014420670343</v>
       </c>
       <c r="M13" t="n">
-        <v>775.0657645974884</v>
+        <v>775.0657645974882</v>
       </c>
       <c r="N13" t="n">
-        <v>1032.630654068971</v>
+        <v>1032.63065406897</v>
       </c>
       <c r="O13" t="n">
         <v>1267.327518396184</v>
@@ -5235,13 +5235,13 @@
         <v>1091.247874402781</v>
       </c>
       <c r="V13" t="n">
-        <v>933.5953759944322</v>
+        <v>933.5953759944321</v>
       </c>
       <c r="W13" t="n">
         <v>750.5217805450593</v>
       </c>
       <c r="X13" t="n">
-        <v>622.3521224736631</v>
+        <v>622.352122473663</v>
       </c>
       <c r="Y13" t="n">
         <v>503.3997696991682</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1053.933946901101</v>
+        <v>1324.48752339234</v>
       </c>
       <c r="C14" t="n">
-        <v>775.0829942671364</v>
+        <v>1045.636570758375</v>
       </c>
       <c r="D14" t="n">
-        <v>505.341835527588</v>
+        <v>1045.636570758375</v>
       </c>
       <c r="E14" t="n">
-        <v>278.9257973026488</v>
+        <v>753.9336568977101</v>
       </c>
       <c r="F14" t="n">
-        <v>278.9257973026488</v>
+        <v>442.8652722411085</v>
       </c>
       <c r="G14" t="n">
-        <v>278.9257973026488</v>
+        <v>130.4105738367239</v>
       </c>
       <c r="H14" t="n">
-        <v>54.9888138237834</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="I14" t="n">
-        <v>54.9888138237834</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="J14" t="n">
         <v>174.1100376568461</v>
@@ -5284,7 +5284,7 @@
         <v>484.8750910679295</v>
       </c>
       <c r="L14" t="n">
-        <v>920.3766264492897</v>
+        <v>920.3766264492898</v>
       </c>
       <c r="M14" t="n">
         <v>1411.105655084268</v>
@@ -5293,37 +5293,37 @@
         <v>1888.504364049727</v>
       </c>
       <c r="O14" t="n">
-        <v>2287.055438170518</v>
+        <v>2287.055438170517</v>
       </c>
       <c r="P14" t="n">
-        <v>2595.052099266574</v>
+        <v>2595.052099266573</v>
       </c>
       <c r="Q14" t="n">
-        <v>2749.44069118917</v>
+        <v>2749.440691189169</v>
       </c>
       <c r="R14" t="n">
-        <v>2749.44069118917</v>
+        <v>2749.440691189169</v>
       </c>
       <c r="S14" t="n">
-        <v>2678.203232893346</v>
+        <v>2678.203232893345</v>
       </c>
       <c r="T14" t="n">
-        <v>2559.406868086228</v>
+        <v>2678.203232893345</v>
       </c>
       <c r="U14" t="n">
-        <v>2407.649656402106</v>
+        <v>2678.203232893345</v>
       </c>
       <c r="V14" t="n">
-        <v>2173.753188331275</v>
+        <v>2444.306764822515</v>
       </c>
       <c r="W14" t="n">
-        <v>1914.301064222105</v>
+        <v>2184.854640713344</v>
       </c>
       <c r="X14" t="n">
-        <v>1635.353729776826</v>
+        <v>1905.907306268065</v>
       </c>
       <c r="Y14" t="n">
-        <v>1344.894680385892</v>
+        <v>1615.448256877131</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>112.9356035520749</v>
       </c>
       <c r="I15" t="n">
-        <v>54.9888138237834</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="J15" t="n">
-        <v>54.9888138237834</v>
+        <v>143.3089054803057</v>
       </c>
       <c r="K15" t="n">
-        <v>54.9888138237834</v>
+        <v>420.7686285343809</v>
       </c>
       <c r="L15" t="n">
-        <v>485.3111284862493</v>
+        <v>851.0909431968468</v>
       </c>
       <c r="M15" t="n">
-        <v>1045.613487603446</v>
+        <v>1411.393302314043</v>
       </c>
       <c r="N15" t="n">
-        <v>1516.88648237338</v>
+        <v>1999.920100652636</v>
       </c>
       <c r="O15" t="n">
-        <v>1979.765293243412</v>
+        <v>2462.798911522667</v>
       </c>
       <c r="P15" t="n">
-        <v>2338.587228896403</v>
+        <v>2534.278698377086</v>
       </c>
       <c r="Q15" t="n">
         <v>2534.278698377086</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>422.9272070480166</v>
+        <v>422.9272070480164</v>
       </c>
       <c r="C16" t="n">
-        <v>356.3940435429249</v>
+        <v>356.3940435429247</v>
       </c>
       <c r="D16" t="n">
-        <v>306.4049564039157</v>
+        <v>306.4049564039154</v>
       </c>
       <c r="E16" t="n">
-        <v>257.4787481984625</v>
+        <v>257.4787481984623</v>
       </c>
       <c r="F16" t="n">
-        <v>208.0808992574676</v>
+        <v>208.0808992574675</v>
       </c>
       <c r="G16" t="n">
         <v>142.4980610304407</v>
       </c>
       <c r="H16" t="n">
-        <v>88.46744071306522</v>
+        <v>88.4674407130652</v>
       </c>
       <c r="I16" t="n">
-        <v>54.9888138237834</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="J16" t="n">
         <v>114.7658445080201</v>
       </c>
       <c r="K16" t="n">
-        <v>278.3363044526609</v>
+        <v>278.3363044526608</v>
       </c>
       <c r="L16" t="n">
-        <v>517.0014420670345</v>
+        <v>517.0014420670344</v>
       </c>
       <c r="M16" t="n">
         <v>775.0657645974884</v>
@@ -5463,25 +5463,25 @@
         <v>1510.550486486039</v>
       </c>
       <c r="S16" t="n">
-        <v>1404.351876113165</v>
+        <v>1404.351876113164</v>
       </c>
       <c r="T16" t="n">
         <v>1275.341447641987</v>
       </c>
       <c r="U16" t="n">
-        <v>1091.247874402782</v>
+        <v>1091.247874402781</v>
       </c>
       <c r="V16" t="n">
-        <v>933.5953759944323</v>
+        <v>933.5953759944322</v>
       </c>
       <c r="W16" t="n">
-        <v>750.5217805450594</v>
+        <v>750.5217805450593</v>
       </c>
       <c r="X16" t="n">
-        <v>622.3521224736633</v>
+        <v>622.352122473663</v>
       </c>
       <c r="Y16" t="n">
-        <v>503.3997696991684</v>
+        <v>503.3997696991682</v>
       </c>
     </row>
     <row r="17">
@@ -5500,13 +5500,13 @@
         <v>997.3489488823826</v>
       </c>
       <c r="E17" t="n">
-        <v>754.8467463571967</v>
+        <v>754.8467463571969</v>
       </c>
       <c r="F17" t="n">
-        <v>492.9790730360745</v>
+        <v>492.9790730360747</v>
       </c>
       <c r="G17" t="n">
-        <v>229.7250859671693</v>
+        <v>229.7250859671694</v>
       </c>
       <c r="H17" t="n">
         <v>54.9888138237834</v>
@@ -5515,7 +5515,7 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J17" t="n">
-        <v>174.1100376568461</v>
+        <v>174.1100376568462</v>
       </c>
       <c r="K17" t="n">
         <v>484.8750910679295</v>
@@ -5597,22 +5597,22 @@
         <v>143.3089054803057</v>
       </c>
       <c r="K18" t="n">
-        <v>420.768628534381</v>
+        <v>420.7686285343809</v>
       </c>
       <c r="L18" t="n">
         <v>851.0909431968469</v>
       </c>
       <c r="M18" t="n">
-        <v>1411.393302314044</v>
+        <v>928.359684034788</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.920100652636</v>
+        <v>1516.886482373381</v>
       </c>
       <c r="O18" t="n">
-        <v>2462.798911522668</v>
+        <v>1979.765293243412</v>
       </c>
       <c r="P18" t="n">
-        <v>2534.278698377086</v>
+        <v>2338.587228896403</v>
       </c>
       <c r="Q18" t="n">
         <v>2534.278698377086</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.4652783825748</v>
+        <v>94.5188152758839</v>
       </c>
       <c r="C19" t="n">
-        <v>84.13282621296261</v>
+        <v>77.18636310627173</v>
       </c>
       <c r="D19" t="n">
-        <v>83.34445040943288</v>
+        <v>76.397987302742</v>
       </c>
       <c r="E19" t="n">
-        <v>83.34445040943288</v>
+        <v>76.397987302742</v>
       </c>
       <c r="F19" t="n">
-        <v>83.14731280391753</v>
+        <v>76.20084969722664</v>
       </c>
       <c r="G19" t="n">
-        <v>66.76518591237026</v>
+        <v>59.81872280567937</v>
       </c>
       <c r="H19" t="n">
         <v>54.9888138237834</v>
@@ -5682,43 +5682,43 @@
         <v>255.1614949964642</v>
       </c>
       <c r="M19" t="n">
-        <v>412.1943593337514</v>
+        <v>412.1943593337513</v>
       </c>
       <c r="N19" t="n">
-        <v>568.7277906120669</v>
+        <v>568.7277906120668</v>
       </c>
       <c r="O19" t="n">
-        <v>702.3931967461135</v>
+        <v>702.3931967461134</v>
       </c>
       <c r="P19" t="n">
-        <v>795.482867136761</v>
+        <v>795.4828671367609</v>
       </c>
       <c r="Q19" t="n">
-        <v>795.482867136761</v>
+        <v>795.4828671367609</v>
       </c>
       <c r="R19" t="n">
-        <v>795.482867136761</v>
+        <v>795.4828671367609</v>
       </c>
       <c r="S19" t="n">
-        <v>738.4849680993658</v>
+        <v>731.5385049926749</v>
       </c>
       <c r="T19" t="n">
-        <v>658.675250963668</v>
+        <v>651.7287878569771</v>
       </c>
       <c r="U19" t="n">
-        <v>523.7823890599424</v>
+        <v>516.8359259532515</v>
       </c>
       <c r="V19" t="n">
-        <v>415.3306019870725</v>
+        <v>408.3841388803816</v>
       </c>
       <c r="W19" t="n">
-        <v>281.4577178731791</v>
+        <v>274.5112547664883</v>
       </c>
       <c r="X19" t="n">
-        <v>202.4887711372625</v>
+        <v>195.5423080305716</v>
       </c>
       <c r="Y19" t="n">
-        <v>132.7371296982471</v>
+        <v>125.7906665915562</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>754.8467463571965</v>
       </c>
       <c r="F20" t="n">
-        <v>492.9790730360744</v>
+        <v>492.9790730360743</v>
       </c>
       <c r="G20" t="n">
         <v>229.7250859671693</v>
@@ -5755,13 +5755,13 @@
         <v>174.1100376568461</v>
       </c>
       <c r="K20" t="n">
-        <v>484.8750910679294</v>
+        <v>484.8750910679295</v>
       </c>
       <c r="L20" t="n">
-        <v>920.3766264492895</v>
+        <v>920.3766264492901</v>
       </c>
       <c r="M20" t="n">
-        <v>1411.105655084268</v>
+        <v>1411.105655084269</v>
       </c>
       <c r="N20" t="n">
         <v>1888.504364049727</v>
@@ -5788,7 +5788,7 @@
         <v>2555.251790408544</v>
       </c>
       <c r="V20" t="n">
-        <v>2370.556033673192</v>
+        <v>2370.556033673193</v>
       </c>
       <c r="W20" t="n">
         <v>2160.304620899501</v>
@@ -5831,25 +5831,25 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J21" t="n">
-        <v>54.9888138237834</v>
+        <v>143.3089054803057</v>
       </c>
       <c r="K21" t="n">
-        <v>332.4485368778587</v>
+        <v>368.0573249175911</v>
       </c>
       <c r="L21" t="n">
-        <v>762.7708515403245</v>
+        <v>368.0573249175911</v>
       </c>
       <c r="M21" t="n">
-        <v>1323.073210657521</v>
+        <v>928.359684034788</v>
       </c>
       <c r="N21" t="n">
-        <v>1911.600008996114</v>
+        <v>1516.886482373381</v>
       </c>
       <c r="O21" t="n">
-        <v>2374.478819866146</v>
+        <v>1979.765293243412</v>
       </c>
       <c r="P21" t="n">
-        <v>2534.278698377086</v>
+        <v>2338.587228896403</v>
       </c>
       <c r="Q21" t="n">
         <v>2534.278698377086</v>
@@ -5965,55 +5965,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1447.539637584935</v>
+        <v>1447.539637584936</v>
       </c>
       <c r="C23" t="n">
-        <v>1217.88939628645</v>
+        <v>1217.889396286451</v>
       </c>
       <c r="D23" t="n">
-        <v>997.3489488823809</v>
+        <v>997.3489488823819</v>
       </c>
       <c r="E23" t="n">
-        <v>754.8467463571953</v>
+        <v>754.8467463571964</v>
       </c>
       <c r="F23" t="n">
-        <v>492.9790730360733</v>
+        <v>492.9790730360743</v>
       </c>
       <c r="G23" t="n">
         <v>229.7250859671693</v>
       </c>
       <c r="H23" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="I23" t="n">
-        <v>54.98881382378339</v>
+        <v>54.98881382378366</v>
       </c>
       <c r="J23" t="n">
-        <v>174.1100376568461</v>
+        <v>174.1100376568464</v>
       </c>
       <c r="K23" t="n">
-        <v>484.8750910679291</v>
+        <v>484.8750910679298</v>
       </c>
       <c r="L23" t="n">
-        <v>920.3766264492895</v>
+        <v>920.37662644929</v>
       </c>
       <c r="M23" t="n">
-        <v>1411.105655084268</v>
+        <v>1411.105655084269</v>
       </c>
       <c r="N23" t="n">
         <v>1888.504364049727</v>
       </c>
       <c r="O23" t="n">
-        <v>2287.055438170517</v>
+        <v>2287.055438170518</v>
       </c>
       <c r="P23" t="n">
-        <v>2595.052099266573</v>
+        <v>2595.052099266574</v>
       </c>
       <c r="Q23" t="n">
-        <v>2749.440691189169</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="R23" t="n">
-        <v>2749.440691189169</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="S23" t="n">
         <v>2727.403944228825</v>
@@ -6025,16 +6025,16 @@
         <v>2555.251790408543</v>
       </c>
       <c r="V23" t="n">
-        <v>2370.556033673191</v>
+        <v>2370.556033673192</v>
       </c>
       <c r="W23" t="n">
-        <v>2160.3046208995</v>
+        <v>2160.304620899501</v>
       </c>
       <c r="X23" t="n">
-        <v>1930.557997789701</v>
+        <v>1930.557997789702</v>
       </c>
       <c r="Y23" t="n">
-        <v>1689.299659734246</v>
+        <v>1689.299659734248</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>112.9356035520749</v>
       </c>
       <c r="I24" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J24" t="n">
-        <v>54.98881382378339</v>
+        <v>143.3089054803057</v>
       </c>
       <c r="K24" t="n">
-        <v>54.98881382378339</v>
+        <v>420.7686285343809</v>
       </c>
       <c r="L24" t="n">
-        <v>368.0573249175911</v>
+        <v>851.0909431968469</v>
       </c>
       <c r="M24" t="n">
-        <v>928.359684034788</v>
+        <v>1411.393302314044</v>
       </c>
       <c r="N24" t="n">
-        <v>1516.886482373381</v>
+        <v>1979.765293243412</v>
       </c>
       <c r="O24" t="n">
         <v>1979.765293243412</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.4652783825751</v>
+        <v>94.51881527588375</v>
       </c>
       <c r="C25" t="n">
-        <v>84.13282621296293</v>
+        <v>77.18636310627161</v>
       </c>
       <c r="D25" t="n">
-        <v>83.34445040943322</v>
+        <v>76.39798730274191</v>
       </c>
       <c r="E25" t="n">
-        <v>83.34445040943322</v>
+        <v>76.39798730274191</v>
       </c>
       <c r="F25" t="n">
-        <v>83.1473128039179</v>
+        <v>76.20084969722659</v>
       </c>
       <c r="G25" t="n">
         <v>59.81872280567934</v>
       </c>
       <c r="H25" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="I25" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J25" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="K25" t="n">
-        <v>117.5278155752573</v>
+        <v>117.5278155752574</v>
       </c>
       <c r="L25" t="n">
         <v>255.1614949964642</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1518.806922118948</v>
+        <v>1478.184298475047</v>
       </c>
       <c r="C26" t="n">
-        <v>1239.955969484983</v>
+        <v>1199.333345841082</v>
       </c>
       <c r="D26" t="n">
-        <v>970.2148107454349</v>
+        <v>929.5921871015337</v>
       </c>
       <c r="E26" t="n">
-        <v>678.5118968847697</v>
+        <v>637.8892732408686</v>
       </c>
       <c r="F26" t="n">
-        <v>367.4435122281681</v>
+        <v>326.820888584267</v>
       </c>
       <c r="G26" t="n">
-        <v>54.98881382378339</v>
+        <v>326.820888584267</v>
       </c>
       <c r="H26" t="n">
-        <v>54.98881382378339</v>
+        <v>102.8839051054015</v>
       </c>
       <c r="I26" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J26" t="n">
-        <v>174.1100376568461</v>
+        <v>174.1100376568463</v>
       </c>
       <c r="K26" t="n">
-        <v>484.8750910679291</v>
+        <v>484.8750910679297</v>
       </c>
       <c r="L26" t="n">
-        <v>920.3766264492895</v>
+        <v>920.37662644929</v>
       </c>
       <c r="M26" t="n">
-        <v>1411.105655084268</v>
+        <v>1411.105655084269</v>
       </c>
       <c r="N26" t="n">
         <v>1888.504364049727</v>
       </c>
       <c r="O26" t="n">
-        <v>2287.055438170517</v>
+        <v>2287.055438170518</v>
       </c>
       <c r="P26" t="n">
-        <v>2595.052099266573</v>
+        <v>2595.052099266574</v>
       </c>
       <c r="Q26" t="n">
-        <v>2749.440691189169</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="R26" t="n">
-        <v>2749.440691189169</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="S26" t="n">
-        <v>2678.203232893345</v>
+        <v>2678.203232893346</v>
       </c>
       <c r="T26" t="n">
-        <v>2559.406868086227</v>
+        <v>2559.406868086228</v>
       </c>
       <c r="U26" t="n">
-        <v>2407.649656402105</v>
+        <v>2407.649656402106</v>
       </c>
       <c r="V26" t="n">
-        <v>2407.649656402105</v>
+        <v>2173.753188331275</v>
       </c>
       <c r="W26" t="n">
-        <v>2148.197532292934</v>
+        <v>2048.092366405117</v>
       </c>
       <c r="X26" t="n">
-        <v>1869.250197847656</v>
+        <v>1769.145031959838</v>
       </c>
       <c r="Y26" t="n">
-        <v>1578.791148456722</v>
+        <v>1769.145031959838</v>
       </c>
     </row>
     <row r="27">
@@ -6302,16 +6302,16 @@
         <v>112.9356035520749</v>
       </c>
       <c r="I27" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J27" t="n">
-        <v>143.3089054803057</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="K27" t="n">
-        <v>420.7686285343809</v>
+        <v>133.4264797358081</v>
       </c>
       <c r="L27" t="n">
-        <v>851.0909431968469</v>
+        <v>563.748794398274</v>
       </c>
       <c r="M27" t="n">
         <v>1124.051153515471</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>422.9272070480168</v>
+        <v>422.9272070480165</v>
       </c>
       <c r="C28" t="n">
-        <v>356.3940435429251</v>
+        <v>356.3940435429248</v>
       </c>
       <c r="D28" t="n">
-        <v>306.4049564039158</v>
+        <v>306.4049564039155</v>
       </c>
       <c r="E28" t="n">
-        <v>257.4787481984627</v>
+        <v>257.4787481984624</v>
       </c>
       <c r="F28" t="n">
-        <v>208.0808992574677</v>
+        <v>208.0808992574675</v>
       </c>
       <c r="G28" t="n">
-        <v>142.4980610304409</v>
+        <v>142.4980610304407</v>
       </c>
       <c r="H28" t="n">
-        <v>88.46744071306541</v>
+        <v>88.46744071306522</v>
       </c>
       <c r="I28" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J28" t="n">
         <v>114.7658445080201</v>
@@ -6390,10 +6390,10 @@
         <v>278.3363044526608</v>
       </c>
       <c r="L28" t="n">
-        <v>517.0014420670343</v>
+        <v>517.0014420670344</v>
       </c>
       <c r="M28" t="n">
-        <v>775.0657645974882</v>
+        <v>775.0657645974883</v>
       </c>
       <c r="N28" t="n">
         <v>1032.63065406897</v>
@@ -6411,25 +6411,25 @@
         <v>1510.550486486039</v>
       </c>
       <c r="S28" t="n">
-        <v>1404.351876113164</v>
+        <v>1404.351876113165</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.341447641986</v>
+        <v>1275.341447641987</v>
       </c>
       <c r="U28" t="n">
-        <v>1091.247874402782</v>
+        <v>1091.247874402781</v>
       </c>
       <c r="V28" t="n">
-        <v>933.5953759944325</v>
+        <v>933.5953759944322</v>
       </c>
       <c r="W28" t="n">
-        <v>750.5217805450596</v>
+        <v>750.5217805450593</v>
       </c>
       <c r="X28" t="n">
-        <v>622.3521224736635</v>
+        <v>622.3521224736631</v>
       </c>
       <c r="Y28" t="n">
-        <v>503.3997696991686</v>
+        <v>503.3997696991683</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1053.933946901101</v>
+        <v>1479.57061222283</v>
       </c>
       <c r="C29" t="n">
-        <v>775.082994267136</v>
+        <v>1200.719659588865</v>
       </c>
       <c r="D29" t="n">
-        <v>505.3418355275875</v>
+        <v>930.9785008493169</v>
       </c>
       <c r="E29" t="n">
-        <v>213.6389216669224</v>
+        <v>639.2755869886518</v>
       </c>
       <c r="F29" t="n">
-        <v>54.98881382378339</v>
+        <v>639.2755869886518</v>
       </c>
       <c r="G29" t="n">
-        <v>54.98881382378339</v>
+        <v>326.8208885842671</v>
       </c>
       <c r="H29" t="n">
-        <v>54.98881382378339</v>
+        <v>102.8839051054016</v>
       </c>
       <c r="I29" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J29" t="n">
-        <v>174.1100376568461</v>
+        <v>174.1100376568462</v>
       </c>
       <c r="K29" t="n">
-        <v>484.8750910679291</v>
+        <v>484.8750910679295</v>
       </c>
       <c r="L29" t="n">
         <v>920.3766264492897</v>
@@ -6487,28 +6487,28 @@
         <v>2749.440691189169</v>
       </c>
       <c r="R29" t="n">
-        <v>2749.440691189169</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="S29" t="n">
-        <v>2678.203232893345</v>
+        <v>2678.203232893346</v>
       </c>
       <c r="T29" t="n">
-        <v>2559.406868086227</v>
+        <v>2559.406868086228</v>
       </c>
       <c r="U29" t="n">
-        <v>2407.649656402105</v>
+        <v>2542.325588239045</v>
       </c>
       <c r="V29" t="n">
-        <v>2173.753188331275</v>
+        <v>2308.429120168214</v>
       </c>
       <c r="W29" t="n">
-        <v>1914.301064222104</v>
+        <v>2048.976996059043</v>
       </c>
       <c r="X29" t="n">
-        <v>1635.353729776826</v>
+        <v>1770.029661613764</v>
       </c>
       <c r="Y29" t="n">
-        <v>1344.894680385892</v>
+        <v>1479.57061222283</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>112.9356035520749</v>
       </c>
       <c r="I30" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J30" t="n">
-        <v>143.3089054803057</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="K30" t="n">
-        <v>420.7686285343809</v>
+        <v>332.4485368778587</v>
       </c>
       <c r="L30" t="n">
-        <v>851.0909431968469</v>
+        <v>762.7708515403245</v>
       </c>
       <c r="M30" t="n">
-        <v>1411.393302314044</v>
+        <v>1323.073210657521</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.920100652636</v>
+        <v>1911.600008996114</v>
       </c>
       <c r="O30" t="n">
         <v>2175.456762724095</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>422.9272070480164</v>
+        <v>422.9272070480166</v>
       </c>
       <c r="C31" t="n">
-        <v>356.3940435429247</v>
+        <v>356.3940435429249</v>
       </c>
       <c r="D31" t="n">
-        <v>306.4049564039154</v>
+        <v>306.4049564039156</v>
       </c>
       <c r="E31" t="n">
-        <v>257.4787481984623</v>
+        <v>257.4787481984624</v>
       </c>
       <c r="F31" t="n">
         <v>208.0808992574675</v>
@@ -6615,7 +6615,7 @@
         <v>142.4980610304407</v>
       </c>
       <c r="H31" t="n">
-        <v>88.4674407130652</v>
+        <v>88.46744071306523</v>
       </c>
       <c r="I31" t="n">
         <v>54.98881382378339</v>
@@ -6630,10 +6630,10 @@
         <v>517.0014420670344</v>
       </c>
       <c r="M31" t="n">
-        <v>775.0657645974884</v>
+        <v>775.0657645974883</v>
       </c>
       <c r="N31" t="n">
-        <v>1032.630654068971</v>
+        <v>1032.63065406897</v>
       </c>
       <c r="O31" t="n">
         <v>1267.327518396184</v>
@@ -6648,25 +6648,25 @@
         <v>1510.550486486039</v>
       </c>
       <c r="S31" t="n">
-        <v>1404.351876113165</v>
+        <v>1404.351876113164</v>
       </c>
       <c r="T31" t="n">
         <v>1275.341447641987</v>
       </c>
       <c r="U31" t="n">
-        <v>1091.247874402781</v>
+        <v>1091.247874402782</v>
       </c>
       <c r="V31" t="n">
-        <v>933.5953759944322</v>
+        <v>933.5953759944324</v>
       </c>
       <c r="W31" t="n">
-        <v>750.5217805450593</v>
+        <v>750.5217805450595</v>
       </c>
       <c r="X31" t="n">
-        <v>622.352122473663</v>
+        <v>622.3521224736633</v>
       </c>
       <c r="Y31" t="n">
-        <v>503.3997696991682</v>
+        <v>503.3997696991684</v>
       </c>
     </row>
     <row r="32">
@@ -6682,31 +6682,31 @@
         <v>1217.889396286451</v>
       </c>
       <c r="D32" t="n">
-        <v>997.3489488823818</v>
+        <v>997.348948882382</v>
       </c>
       <c r="E32" t="n">
-        <v>754.8467463571963</v>
+        <v>754.8467463571965</v>
       </c>
       <c r="F32" t="n">
-        <v>492.9790730360742</v>
+        <v>492.9790730360745</v>
       </c>
       <c r="G32" t="n">
         <v>229.7250859671693</v>
       </c>
       <c r="H32" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="I32" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J32" t="n">
-        <v>174.1100376568461</v>
+        <v>174.1100376568462</v>
       </c>
       <c r="K32" t="n">
-        <v>484.8750910679291</v>
+        <v>484.8750910679295</v>
       </c>
       <c r="L32" t="n">
-        <v>920.3766264492895</v>
+        <v>920.3766264492897</v>
       </c>
       <c r="M32" t="n">
         <v>1411.105655084268</v>
@@ -6724,13 +6724,13 @@
         <v>2749.440691189169</v>
       </c>
       <c r="R32" t="n">
-        <v>2749.440691189169</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="S32" t="n">
-        <v>2727.403944228824</v>
+        <v>2727.403944228825</v>
       </c>
       <c r="T32" t="n">
-        <v>2657.808290757186</v>
+        <v>2657.808290757187</v>
       </c>
       <c r="U32" t="n">
         <v>2555.251790408543</v>
@@ -6776,28 +6776,28 @@
         <v>112.9356035520749</v>
       </c>
       <c r="I33" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J33" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="K33" t="n">
-        <v>54.98881382378339</v>
+        <v>332.4485368778587</v>
       </c>
       <c r="L33" t="n">
-        <v>485.3111284862493</v>
+        <v>762.7708515403245</v>
       </c>
       <c r="M33" t="n">
-        <v>1045.613487603446</v>
+        <v>1323.073210657521</v>
       </c>
       <c r="N33" t="n">
-        <v>1634.140285942039</v>
+        <v>1516.886482373381</v>
       </c>
       <c r="O33" t="n">
-        <v>2097.019096812071</v>
+        <v>1979.765293243412</v>
       </c>
       <c r="P33" t="n">
-        <v>2455.841032465062</v>
+        <v>2338.587228896403</v>
       </c>
       <c r="Q33" t="n">
         <v>2534.278698377086</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.4652783825753</v>
+        <v>94.51881527588361</v>
       </c>
       <c r="C34" t="n">
-        <v>84.13282621296318</v>
+        <v>77.1863631062715</v>
       </c>
       <c r="D34" t="n">
-        <v>83.34445040943351</v>
+        <v>76.39798730274183</v>
       </c>
       <c r="E34" t="n">
-        <v>83.34445040943351</v>
+        <v>76.39798730274183</v>
       </c>
       <c r="F34" t="n">
-        <v>83.14731280391821</v>
+        <v>76.20084969722653</v>
       </c>
       <c r="G34" t="n">
         <v>59.81872280567931</v>
       </c>
       <c r="H34" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="I34" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J34" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="K34" t="n">
-        <v>117.5278155752573</v>
+        <v>117.5278155752574</v>
       </c>
       <c r="L34" t="n">
         <v>255.1614949964642</v>
@@ -6885,25 +6885,25 @@
         <v>795.4828671367609</v>
       </c>
       <c r="S34" t="n">
-        <v>738.4849680993658</v>
+        <v>731.5385049926742</v>
       </c>
       <c r="T34" t="n">
-        <v>658.6752509636681</v>
+        <v>651.7287878569764</v>
       </c>
       <c r="U34" t="n">
-        <v>523.7823890599426</v>
+        <v>516.8359259532509</v>
       </c>
       <c r="V34" t="n">
-        <v>415.3306019870728</v>
+        <v>408.3841388803811</v>
       </c>
       <c r="W34" t="n">
-        <v>281.4577178731795</v>
+        <v>274.5112547664878</v>
       </c>
       <c r="X34" t="n">
-        <v>202.4887711372629</v>
+        <v>195.5423080305712</v>
       </c>
       <c r="Y34" t="n">
-        <v>132.7371296982475</v>
+        <v>125.7906665915558</v>
       </c>
     </row>
     <row r="35">
@@ -6919,49 +6919,49 @@
         <v>1217.889396286451</v>
       </c>
       <c r="D35" t="n">
-        <v>997.3489488823818</v>
+        <v>997.3489488823819</v>
       </c>
       <c r="E35" t="n">
-        <v>754.8467463571963</v>
+        <v>754.8467463571964</v>
       </c>
       <c r="F35" t="n">
-        <v>492.9790730360742</v>
+        <v>492.9790730360743</v>
       </c>
       <c r="G35" t="n">
         <v>229.7250859671693</v>
       </c>
       <c r="H35" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="I35" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J35" t="n">
-        <v>174.110037656846</v>
+        <v>174.1100376568463</v>
       </c>
       <c r="K35" t="n">
-        <v>484.8750910679293</v>
+        <v>484.8750910679297</v>
       </c>
       <c r="L35" t="n">
-        <v>920.3766264492896</v>
+        <v>920.37662644929</v>
       </c>
       <c r="M35" t="n">
-        <v>1411.105655084268</v>
+        <v>1411.105655084269</v>
       </c>
       <c r="N35" t="n">
         <v>1888.504364049727</v>
       </c>
       <c r="O35" t="n">
-        <v>2287.055438170517</v>
+        <v>2287.055438170518</v>
       </c>
       <c r="P35" t="n">
-        <v>2595.052099266573</v>
+        <v>2595.052099266574</v>
       </c>
       <c r="Q35" t="n">
-        <v>2749.440691189169</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="R35" t="n">
-        <v>2749.440691189169</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="S35" t="n">
         <v>2727.403944228825</v>
@@ -6982,7 +6982,7 @@
         <v>1930.557997789702</v>
       </c>
       <c r="Y35" t="n">
-        <v>1689.299659734247</v>
+        <v>1689.299659734248</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>112.9356035520749</v>
       </c>
       <c r="I36" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J36" t="n">
-        <v>54.98881382378339</v>
+        <v>143.3089054803057</v>
       </c>
       <c r="K36" t="n">
-        <v>133.4264797358081</v>
+        <v>420.7686285343809</v>
       </c>
       <c r="L36" t="n">
-        <v>563.748794398274</v>
+        <v>851.0909431968469</v>
       </c>
       <c r="M36" t="n">
-        <v>1124.051153515471</v>
+        <v>1411.393302314044</v>
       </c>
       <c r="N36" t="n">
-        <v>1712.577951854063</v>
+        <v>1979.765293243412</v>
       </c>
       <c r="O36" t="n">
-        <v>2175.456762724095</v>
+        <v>1979.765293243412</v>
       </c>
       <c r="P36" t="n">
-        <v>2534.278698377086</v>
+        <v>2338.587228896403</v>
       </c>
       <c r="Q36" t="n">
         <v>2534.278698377086</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2048.476639328291</v>
+        <v>94.51881527588375</v>
       </c>
       <c r="C37" t="n">
-        <v>2031.144187158679</v>
+        <v>77.18636310627161</v>
       </c>
       <c r="D37" t="n">
-        <v>2030.355811355149</v>
+        <v>76.39798730274191</v>
       </c>
       <c r="E37" t="n">
-        <v>2030.355811355149</v>
+        <v>76.39798730274191</v>
       </c>
       <c r="F37" t="n">
-        <v>2030.158673749634</v>
+        <v>76.20084969722659</v>
       </c>
       <c r="G37" t="n">
-        <v>2013.776546858087</v>
+        <v>59.81872280567934</v>
       </c>
       <c r="H37" t="n">
-        <v>2008.946637876191</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="I37" t="n">
-        <v>2008.946637876191</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J37" t="n">
-        <v>2008.946637876191</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="K37" t="n">
-        <v>2071.485639627665</v>
+        <v>117.5278155752574</v>
       </c>
       <c r="L37" t="n">
-        <v>2209.119319048872</v>
+        <v>255.1614949964642</v>
       </c>
       <c r="M37" t="n">
-        <v>2366.152183386159</v>
+        <v>412.1943593337513</v>
       </c>
       <c r="N37" t="n">
-        <v>2522.685614664475</v>
+        <v>568.7277906120668</v>
       </c>
       <c r="O37" t="n">
-        <v>2656.351020798522</v>
+        <v>702.3931967461134</v>
       </c>
       <c r="P37" t="n">
-        <v>2749.440691189169</v>
+        <v>795.4828671367609</v>
       </c>
       <c r="Q37" t="n">
-        <v>2749.440691189169</v>
+        <v>795.4828671367609</v>
       </c>
       <c r="R37" t="n">
-        <v>2749.440691189169</v>
+        <v>795.4828671367609</v>
       </c>
       <c r="S37" t="n">
-        <v>2692.442792151774</v>
+        <v>731.5385049926745</v>
       </c>
       <c r="T37" t="n">
-        <v>2612.633075016076</v>
+        <v>651.7287878569766</v>
       </c>
       <c r="U37" t="n">
-        <v>2477.740213112351</v>
+        <v>516.8359259532511</v>
       </c>
       <c r="V37" t="n">
-        <v>2369.288426039481</v>
+        <v>408.3841388803813</v>
       </c>
       <c r="W37" t="n">
-        <v>2235.415541925588</v>
+        <v>274.511254766488</v>
       </c>
       <c r="X37" t="n">
-        <v>2156.446595189671</v>
+        <v>195.5423080305713</v>
       </c>
       <c r="Y37" t="n">
-        <v>2079.748490643964</v>
+        <v>125.790666591556</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1217.889396286451</v>
       </c>
       <c r="D38" t="n">
-        <v>997.348948882382</v>
+        <v>997.3489488823818</v>
       </c>
       <c r="E38" t="n">
-        <v>754.8467463571965</v>
+        <v>754.8467463571963</v>
       </c>
       <c r="F38" t="n">
-        <v>492.9790730360743</v>
+        <v>492.9790730360742</v>
       </c>
       <c r="G38" t="n">
         <v>229.7250859671693</v>
@@ -7180,7 +7180,7 @@
         <v>484.8750910679291</v>
       </c>
       <c r="L38" t="n">
-        <v>920.3766264492892</v>
+        <v>920.3766264492897</v>
       </c>
       <c r="M38" t="n">
         <v>1411.105655084268</v>
@@ -7207,10 +7207,10 @@
         <v>2657.808290757187</v>
       </c>
       <c r="U38" t="n">
-        <v>2555.251790408544</v>
+        <v>2555.251790408543</v>
       </c>
       <c r="V38" t="n">
-        <v>2370.556033673193</v>
+        <v>2370.556033673192</v>
       </c>
       <c r="W38" t="n">
         <v>2160.304620899501</v>
@@ -7253,25 +7253,25 @@
         <v>54.98881382378339</v>
       </c>
       <c r="J39" t="n">
-        <v>54.98881382378339</v>
+        <v>143.3089054803057</v>
       </c>
       <c r="K39" t="n">
-        <v>133.4264797358081</v>
+        <v>420.7686285343809</v>
       </c>
       <c r="L39" t="n">
-        <v>563.748794398274</v>
+        <v>851.0909431968469</v>
       </c>
       <c r="M39" t="n">
-        <v>1124.051153515471</v>
+        <v>1411.393302314044</v>
       </c>
       <c r="N39" t="n">
-        <v>1712.577951854063</v>
+        <v>1516.886482373381</v>
       </c>
       <c r="O39" t="n">
-        <v>2175.456762724095</v>
+        <v>1979.765293243412</v>
       </c>
       <c r="P39" t="n">
-        <v>2534.278698377086</v>
+        <v>2338.587228896403</v>
       </c>
       <c r="Q39" t="n">
         <v>2534.278698377086</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.51881527588375</v>
+        <v>94.51881527588361</v>
       </c>
       <c r="C40" t="n">
-        <v>77.18636310627161</v>
+        <v>77.18636310627149</v>
       </c>
       <c r="D40" t="n">
-        <v>76.39798730274191</v>
+        <v>76.39798730274181</v>
       </c>
       <c r="E40" t="n">
-        <v>76.39798730274191</v>
+        <v>76.39798730274181</v>
       </c>
       <c r="F40" t="n">
-        <v>76.20084969722659</v>
+        <v>76.20084969722652</v>
       </c>
       <c r="G40" t="n">
-        <v>59.81872280567934</v>
+        <v>59.81872280567931</v>
       </c>
       <c r="H40" t="n">
         <v>54.98881382378339</v>
@@ -7353,31 +7353,31 @@
         <v>795.4828671367609</v>
       </c>
       <c r="Q40" t="n">
-        <v>795.4828671367609</v>
+        <v>788.5364040300693</v>
       </c>
       <c r="R40" t="n">
-        <v>795.4828671367609</v>
+        <v>788.5364040300693</v>
       </c>
       <c r="S40" t="n">
-        <v>738.4849680993658</v>
+        <v>731.5385049926742</v>
       </c>
       <c r="T40" t="n">
-        <v>658.675250963668</v>
+        <v>651.7287878569764</v>
       </c>
       <c r="U40" t="n">
-        <v>523.7823890599425</v>
+        <v>516.8359259532509</v>
       </c>
       <c r="V40" t="n">
-        <v>408.3841388803813</v>
+        <v>408.3841388803811</v>
       </c>
       <c r="W40" t="n">
-        <v>274.511254766488</v>
+        <v>274.5112547664878</v>
       </c>
       <c r="X40" t="n">
-        <v>195.5423080305713</v>
+        <v>195.5423080305712</v>
       </c>
       <c r="Y40" t="n">
-        <v>125.790666591556</v>
+        <v>125.7906665915558</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1267.791296828475</v>
+        <v>1519.194238907488</v>
       </c>
       <c r="C41" t="n">
-        <v>984.2589608322414</v>
+        <v>1519.194238907488</v>
       </c>
       <c r="D41" t="n">
-        <v>984.2589608322414</v>
+        <v>1244.77169680567</v>
       </c>
       <c r="E41" t="n">
-        <v>687.8746636093074</v>
+        <v>948.3873995827362</v>
       </c>
       <c r="F41" t="n">
-        <v>372.1248955904369</v>
+        <v>632.6376315638656</v>
       </c>
       <c r="G41" t="n">
-        <v>54.98881382378339</v>
+        <v>315.5015497972121</v>
       </c>
       <c r="H41" t="n">
-        <v>54.98881382378339</v>
+        <v>86.88318295607763</v>
       </c>
       <c r="I41" t="n">
         <v>54.98881382378339</v>
       </c>
       <c r="J41" t="n">
-        <v>174.110037656846</v>
+        <v>174.1100376568461</v>
       </c>
       <c r="K41" t="n">
-        <v>484.8750910679293</v>
+        <v>484.8750910679295</v>
       </c>
       <c r="L41" t="n">
         <v>920.3766264492896</v>
@@ -7438,25 +7438,25 @@
         <v>2749.440691189169</v>
       </c>
       <c r="S41" t="n">
-        <v>2749.440691189169</v>
+        <v>2673.521849531076</v>
       </c>
       <c r="T41" t="n">
-        <v>2749.440691189169</v>
+        <v>2550.04410136169</v>
       </c>
       <c r="U41" t="n">
-        <v>2644.913923140825</v>
+        <v>2393.605506315298</v>
       </c>
       <c r="V41" t="n">
-        <v>2406.336071707725</v>
+        <v>2393.605506315298</v>
       </c>
       <c r="W41" t="n">
-        <v>2142.202564236286</v>
+        <v>2393.605506315298</v>
       </c>
       <c r="X41" t="n">
-        <v>1858.573846428738</v>
+        <v>2109.976788507751</v>
       </c>
       <c r="Y41" t="n">
-        <v>1563.433413675535</v>
+        <v>1814.836355754548</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>54.98881382378339</v>
       </c>
       <c r="J42" t="n">
-        <v>54.98881382378339</v>
+        <v>143.3089054803057</v>
       </c>
       <c r="K42" t="n">
-        <v>332.4485368778587</v>
+        <v>420.7686285343809</v>
       </c>
       <c r="L42" t="n">
-        <v>762.7708515403245</v>
+        <v>851.0909431968469</v>
       </c>
       <c r="M42" t="n">
-        <v>1323.073210657521</v>
+        <v>1411.393302314044</v>
       </c>
       <c r="N42" t="n">
-        <v>1911.600008996114</v>
+        <v>1516.886482373381</v>
       </c>
       <c r="O42" t="n">
-        <v>2374.478819866145</v>
+        <v>1979.765293243412</v>
       </c>
       <c r="P42" t="n">
-        <v>2534.278698377086</v>
+        <v>2338.587228896403</v>
       </c>
       <c r="Q42" t="n">
         <v>2534.278698377086</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>383.7838682590753</v>
+        <v>358.8248766527038</v>
       </c>
       <c r="C43" t="n">
-        <v>312.5693213917148</v>
+        <v>287.6103297853432</v>
       </c>
       <c r="D43" t="n">
-        <v>257.8988508904366</v>
+        <v>232.939859284065</v>
       </c>
       <c r="E43" t="n">
-        <v>238.0442713959873</v>
+        <v>179.3322677163429</v>
       </c>
       <c r="F43" t="n">
-        <v>183.9650390927235</v>
+        <v>125.2530354130791</v>
       </c>
       <c r="G43" t="n">
-        <v>113.7008175034278</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="H43" t="n">
         <v>54.98881382378339</v>
@@ -7572,13 +7572,13 @@
         <v>110.1776206746603</v>
       </c>
       <c r="K43" t="n">
-        <v>269.1598567859413</v>
+        <v>269.1598567859412</v>
       </c>
       <c r="L43" t="n">
-        <v>503.2367705669551</v>
+        <v>503.236770566955</v>
       </c>
       <c r="M43" t="n">
-        <v>756.7128692640492</v>
+        <v>756.7128692640491</v>
       </c>
       <c r="N43" t="n">
         <v>1009.689534902172</v>
@@ -7593,28 +7593,28 @@
         <v>1508.858214595249</v>
       </c>
       <c r="R43" t="n">
-        <v>1508.858214595249</v>
+        <v>1469.163312456892</v>
       </c>
       <c r="S43" t="n">
-        <v>1397.978220860105</v>
+        <v>1358.283318721748</v>
       </c>
       <c r="T43" t="n">
-        <v>1264.286409026659</v>
+        <v>1224.591506888302</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.511452425185</v>
+        <v>1035.816550286828</v>
       </c>
       <c r="V43" t="n">
-        <v>913.1775706545668</v>
+        <v>873.4826685162095</v>
       </c>
       <c r="W43" t="n">
-        <v>725.422591842925</v>
+        <v>685.7276897045676</v>
       </c>
       <c r="X43" t="n">
-        <v>592.5715504092599</v>
+        <v>552.8766482709025</v>
       </c>
       <c r="Y43" t="n">
-        <v>468.9378142724961</v>
+        <v>443.9788226661246</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1770.832205771427</v>
+        <v>1280.616387474388</v>
       </c>
       <c r="C44" t="n">
-        <v>1487.299869775193</v>
+        <v>997.0840514781548</v>
       </c>
       <c r="D44" t="n">
-        <v>1212.877327673376</v>
+        <v>897.1275596545054</v>
       </c>
       <c r="E44" t="n">
-        <v>916.4930304504419</v>
+        <v>600.7432624315713</v>
       </c>
       <c r="F44" t="n">
         <v>600.7432624315713</v>
@@ -7648,10 +7648,10 @@
         <v>54.98881382378339</v>
       </c>
       <c r="J44" t="n">
-        <v>174.1100376568461</v>
+        <v>174.110037656846</v>
       </c>
       <c r="K44" t="n">
-        <v>484.8750910679295</v>
+        <v>484.8750910679293</v>
       </c>
       <c r="L44" t="n">
         <v>920.3766264492896</v>
@@ -7675,25 +7675,25 @@
         <v>2749.440691189169</v>
       </c>
       <c r="S44" t="n">
-        <v>2749.440691189169</v>
+        <v>2673.521849531076</v>
       </c>
       <c r="T44" t="n">
-        <v>2749.440691189169</v>
+        <v>2550.04410136169</v>
       </c>
       <c r="U44" t="n">
-        <v>2749.440691189169</v>
+        <v>2393.605506315298</v>
       </c>
       <c r="V44" t="n">
-        <v>2749.440691189169</v>
+        <v>2155.027654882199</v>
       </c>
       <c r="W44" t="n">
-        <v>2645.243473179237</v>
+        <v>2155.027654882199</v>
       </c>
       <c r="X44" t="n">
-        <v>2361.61475537169</v>
+        <v>1871.398937074651</v>
       </c>
       <c r="Y44" t="n">
-        <v>2066.474322618487</v>
+        <v>1576.258504321449</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>851.0909431968469</v>
       </c>
       <c r="M45" t="n">
-        <v>1411.393302314044</v>
+        <v>928.359684034788</v>
       </c>
       <c r="N45" t="n">
         <v>1516.886482373381</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1624.366344852995</v>
+        <v>417.5368803323481</v>
       </c>
       <c r="C46" t="n">
-        <v>1553.151797985634</v>
+        <v>346.3223334649875</v>
       </c>
       <c r="D46" t="n">
-        <v>1498.481327484356</v>
+        <v>291.6518629637093</v>
       </c>
       <c r="E46" t="n">
-        <v>1444.873735916634</v>
+        <v>238.0442713959873</v>
       </c>
       <c r="F46" t="n">
-        <v>1390.79450361337</v>
+        <v>183.9650390927235</v>
       </c>
       <c r="G46" t="n">
-        <v>1320.530282024074</v>
+        <v>113.7008175034278</v>
       </c>
       <c r="H46" t="n">
-        <v>1295.571290417704</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="I46" t="n">
-        <v>1295.571290417704</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="J46" t="n">
-        <v>1350.760097268581</v>
+        <v>110.1776206746603</v>
       </c>
       <c r="K46" t="n">
-        <v>1509.742333379862</v>
+        <v>269.1598567859413</v>
       </c>
       <c r="L46" t="n">
-        <v>1743.819247160875</v>
+        <v>503.2367705669552</v>
       </c>
       <c r="M46" t="n">
-        <v>1997.29534585797</v>
+        <v>756.7128692640493</v>
       </c>
       <c r="N46" t="n">
-        <v>2250.272011496092</v>
+        <v>1009.689534902172</v>
       </c>
       <c r="O46" t="n">
-        <v>2480.380651989946</v>
+        <v>1239.798175396025</v>
       </c>
       <c r="P46" t="n">
-        <v>2669.9135567404</v>
+        <v>1429.33108014648</v>
       </c>
       <c r="Q46" t="n">
-        <v>2749.440691189169</v>
+        <v>1508.858214595249</v>
       </c>
       <c r="R46" t="n">
-        <v>2749.440691189169</v>
+        <v>1508.858214595249</v>
       </c>
       <c r="S46" t="n">
-        <v>2638.560697454026</v>
+        <v>1397.978220860106</v>
       </c>
       <c r="T46" t="n">
-        <v>2504.868885620579</v>
+        <v>1298.039421099932</v>
       </c>
       <c r="U46" t="n">
-        <v>2316.093929019105</v>
+        <v>1109.264464498458</v>
       </c>
       <c r="V46" t="n">
-        <v>2153.760047248486</v>
+        <v>946.9305827278395</v>
       </c>
       <c r="W46" t="n">
-        <v>1966.005068436845</v>
+        <v>759.1756039161977</v>
       </c>
       <c r="X46" t="n">
-        <v>1833.154027003179</v>
+        <v>626.3245624825325</v>
       </c>
       <c r="Y46" t="n">
-        <v>1709.520290866416</v>
+        <v>502.6908263457688</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>158.5602008080702</v>
       </c>
       <c r="K2" t="n">
         <v>178.8230039740467</v>
@@ -7990,7 +7990,7 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
-        <v>198.341060852584</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
         <v>198.8977434604743</v>
@@ -7999,7 +7999,7 @@
         <v>199.8197557315104</v>
       </c>
       <c r="Q2" t="n">
-        <v>192.0837764031278</v>
+        <v>192.5663197033441</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8057,13 +8057,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>114.5159750468043</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>123.9391158470206</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>124.0358369512853</v>
       </c>
       <c r="M3" t="n">
         <v>115.4839025616399</v>
@@ -8072,7 +8072,7 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>127.802395291465</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
         <v>120.7971527044972</v>
@@ -8139,22 +8139,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K4" t="n">
-        <v>116.7662189439139</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L4" t="n">
-        <v>121.53674615886</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M4" t="n">
-        <v>124.820146137783</v>
+        <v>124.3376028375667</v>
       </c>
       <c r="N4" t="n">
-        <v>103.744504878002</v>
+        <v>115.6874515583558</v>
       </c>
       <c r="O4" t="n">
-        <v>112.4959374921223</v>
+        <v>124.4388841724762</v>
       </c>
       <c r="P4" t="n">
-        <v>123.36440667007</v>
+        <v>123.8469499702863</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8294,28 +8294,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>114.9985183470206</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>123.9391158470206</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>124.0358369512853</v>
       </c>
       <c r="M6" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>118.6580877480622</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
         <v>127.802395291465</v>
       </c>
       <c r="P6" t="n">
-        <v>120.3146094042809</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>125.6781381252464</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8379,16 +8379,16 @@
         <v>104.82327226356</v>
       </c>
       <c r="L7" t="n">
-        <v>121.0542028586437</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M7" t="n">
-        <v>124.820146137783</v>
+        <v>124.3376028375667</v>
       </c>
       <c r="N7" t="n">
         <v>115.6874515583558</v>
       </c>
       <c r="O7" t="n">
-        <v>112.4959374921223</v>
+        <v>124.4388841724762</v>
       </c>
       <c r="P7" t="n">
         <v>123.8469499702863</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>158.5602008080702</v>
       </c>
       <c r="K8" t="n">
-        <v>190.2834073541843</v>
+        <v>190.7659506544006</v>
       </c>
       <c r="L8" t="n">
         <v>203.5031588434685</v>
@@ -8464,7 +8464,7 @@
         <v>199.099261177513</v>
       </c>
       <c r="N8" t="n">
-        <v>198.341060852584</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
         <v>186.9547967801205</v>
@@ -8531,19 +8531,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>114.5159750468043</v>
       </c>
       <c r="K9" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>124.5183802515017</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>118.1755444478459</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
         <v>127.802395291465</v>
@@ -8552,7 +8552,7 @@
         <v>120.7971527044972</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>125.6781381252464</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8613,22 +8613,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>104.82327226356</v>
+        <v>116.2836756436975</v>
       </c>
       <c r="L10" t="n">
-        <v>121.0542028586437</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
         <v>124.820146137783</v>
       </c>
       <c r="N10" t="n">
-        <v>115.6874515583558</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
         <v>124.4388841724762</v>
       </c>
       <c r="P10" t="n">
-        <v>111.9040032899324</v>
+        <v>123.8469499702863</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8771,10 +8771,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>290.5610670892913</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>47.42344418493542</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
@@ -8783,13 +8783,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>221.7764203137155</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>75.43232306601516</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9005,10 +9005,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>74.70613214806453</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>63.5424615970842</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9017,16 +9017,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>504.7069012237318</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>123.7570044858855</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>75.43232306601516</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9175,7 +9175,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355798</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9251,7 +9251,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>117.503837138378</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9260,10 +9260,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>123.7570044858849</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.43232306601512</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9479,13 +9479,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>74.70613214806454</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>290.5610670892918</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>47.42344418493546</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
@@ -9497,10 +9497,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>212.9692182803516</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.43232306601513</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9716,22 +9716,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>74.70613214806454</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>63.54246159708423</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>363.65426347161</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>602.7866953241708</v>
       </c>
       <c r="O24" t="n">
-        <v>512.0210150597484</v>
+        <v>44.46666064557512</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
@@ -9953,16 +9953,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>74.70613214806454</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>142.7724271647859</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>315.1719881289667</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -10190,7 +10190,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>74.70613214806454</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10205,7 +10205,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>221.7764203137151</v>
+        <v>310.9886341081819</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
@@ -10430,7 +10430,7 @@
         <v>74.70613214806454</v>
       </c>
       <c r="K33" t="n">
-        <v>63.54246159708423</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10439,7 +10439,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>224.4445547044644</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10448,7 +10448,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>154.6622886337165</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236957</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10664,10 +10664,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>74.70613214806454</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>142.7724271647859</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10676,16 +10676,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>602.7866953241708</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>44.46666064557512</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>75.43232306601513</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10901,10 +10901,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>74.70613214806454</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>142.7724271647859</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10913,7 +10913,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>135.2323409099975</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10922,7 +10922,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>75.43232306601514</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236957</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155853</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
@@ -11138,7 +11138,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>74.70613214806454</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11150,16 +11150,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>135.2323409099975</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>212.9692182803521</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>75.43232306601514</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236957</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>542.9595789155853</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
         <v>584.3675935406823</v>
@@ -11384,10 +11384,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>117.503837138378</v>
       </c>
       <c r="N45" t="n">
-        <v>135.2323409099976</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>64.6340068793686</v>
+        <v>4.096911949078617</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>267.0437471521529</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>307.9577008100356</v>
       </c>
       <c r="G11" t="n">
-        <v>309.3301514203407</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.41614036880194</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>150.2396395672808</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>267.0437471521529</v>
       </c>
       <c r="E14" t="n">
-        <v>64.63400687936868</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>307.9577008100356</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>309.3301514203407</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>147.0300712312657</v>
       </c>
       <c r="I14" t="n">
-        <v>47.41614036880194</v>
+        <v>47.41614036880195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>117.6084011590467</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>150.2396395672808</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>228.6667420755473</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>309.3301514203407</v>
       </c>
       <c r="H26" t="n">
-        <v>221.6976136440769</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>47.41614036880198</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>231.5575033901223</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>132.4533891611819</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>287.5544588970246</v>
       </c>
     </row>
     <row r="27">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>288.0511261499432</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>150.894094045328</v>
+        <v>307.9577008100356</v>
       </c>
       <c r="G29" t="n">
-        <v>309.3301514203407</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>221.6976136440768</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>47.41614036880195</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>133.3291725185697</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>280.6970126362712</v>
       </c>
       <c r="D41" t="n">
-        <v>271.6783166807992</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>226.3321831727231</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>52.0507098974482</v>
+        <v>20.47528445647691</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>75.15965324151192</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>122.2429706876929</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>51.39270872806608</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>236.1920729187686</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>261.4921723967255</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>33.41548195254001</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>58.12488364284798</v>
       </c>
       <c r="I43" t="n">
-        <v>37.77841014903525</v>
+        <v>37.77841014903526</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>39.29795311697372</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>14.58855142666607</v>
       </c>
     </row>
     <row r="44">
@@ -25870,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>172.7213897753862</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>312.5922703386818</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.05070989744823</v>
+        <v>52.05070989744818</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>75.15965324151195</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>122.242970687693</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>154.874209095927</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>236.1920729187686</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>158.3369265668929</v>
+        <v>261.4921723967254</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>33.41548195254138</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>37.77841014903527</v>
+        <v>37.77841014903523</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>39.29795311697374</v>
+        <v>39.2979531169737</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>33.41548195253965</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>661542.56015023</v>
+        <v>661542.5601502298</v>
       </c>
     </row>
     <row r="7">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>655198.8129158319</v>
+        <v>655198.812915832</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>748433.4589818274</v>
       </c>
       <c r="D2" t="n">
-        <v>748433.4589818276</v>
+        <v>748433.4589818275</v>
       </c>
       <c r="E2" t="n">
         <v>691829.5368422966</v>
       </c>
       <c r="F2" t="n">
-        <v>691829.5368422967</v>
+        <v>691829.5368422968</v>
       </c>
       <c r="G2" t="n">
+        <v>748433.4589818279</v>
+      </c>
+      <c r="H2" t="n">
+        <v>748433.4589818271</v>
+      </c>
+      <c r="I2" t="n">
         <v>748433.4589818278</v>
       </c>
-      <c r="H2" t="n">
-        <v>748433.4589818281</v>
-      </c>
-      <c r="I2" t="n">
-        <v>748433.4589818274</v>
-      </c>
       <c r="J2" t="n">
-        <v>691829.5368422969</v>
+        <v>691829.5368422966</v>
       </c>
       <c r="K2" t="n">
         <v>691829.5368422967</v>
       </c>
       <c r="L2" t="n">
-        <v>748433.4589818273</v>
+        <v>748433.4589818277</v>
       </c>
       <c r="M2" t="n">
-        <v>748433.4589818276</v>
+        <v>748433.4589818271</v>
       </c>
       <c r="N2" t="n">
-        <v>748433.4589818274</v>
+        <v>748433.4589818271</v>
       </c>
       <c r="O2" t="n">
-        <v>683848.6935474098</v>
+        <v>683848.6935474095</v>
       </c>
       <c r="P2" t="n">
-        <v>683848.6935474096</v>
+        <v>683848.6935474094</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4002.356120360259</v>
+        <v>4002.356120360235</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,34 +26374,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>395383.6767847061</v>
+        <v>395383.676784706</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>38966.96337769977</v>
+        <v>38966.96337769976</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>45799.4193418513</v>
+        <v>45799.41934185133</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>77933.92675539957</v>
+        <v>77933.92675539959</v>
       </c>
       <c r="M3" t="n">
-        <v>168316.6744172455</v>
+        <v>168316.6744172456</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>377792.6631872022</v>
       </c>
       <c r="C4" t="n">
-        <v>377792.6631872023</v>
+        <v>377792.6631872022</v>
       </c>
       <c r="D4" t="n">
         <v>377792.6631872022</v>
@@ -26429,7 +26429,7 @@
         <v>217740.2781203591</v>
       </c>
       <c r="F4" t="n">
-        <v>217740.278120359</v>
+        <v>217740.2781203591</v>
       </c>
       <c r="G4" t="n">
         <v>250642.5227137747</v>
@@ -26441,13 +26441,13 @@
         <v>250642.5227137747</v>
       </c>
       <c r="J4" t="n">
-        <v>217740.278120359</v>
+        <v>217740.2781203591</v>
       </c>
       <c r="K4" t="n">
         <v>217740.2781203591</v>
       </c>
       <c r="L4" t="n">
-        <v>250642.5227137747</v>
+        <v>250642.5227137748</v>
       </c>
       <c r="M4" t="n">
         <v>250642.5227137747</v>
@@ -26490,7 +26490,7 @@
         <v>57506.97024124453</v>
       </c>
       <c r="I5" t="n">
-        <v>57506.97024124452</v>
+        <v>57506.97024124453</v>
       </c>
       <c r="J5" t="n">
         <v>53412.07818599472</v>
@@ -26502,7 +26502,7 @@
         <v>57506.97024124453</v>
       </c>
       <c r="M5" t="n">
-        <v>57506.97024124452</v>
+        <v>57506.97024124453</v>
       </c>
       <c r="N5" t="n">
         <v>57506.97024124452</v>
@@ -26524,46 +26524,46 @@
         <v>332284.7085160994</v>
       </c>
       <c r="C6" t="n">
-        <v>336287.0646364596</v>
+        <v>336287.0646364597</v>
       </c>
       <c r="D6" t="n">
-        <v>336287.0646364599</v>
+        <v>336287.0646364597</v>
       </c>
       <c r="E6" t="n">
-        <v>25293.50375123671</v>
+        <v>23842.12113227447</v>
       </c>
       <c r="F6" t="n">
-        <v>420677.180535943</v>
+        <v>419225.7979169807</v>
       </c>
       <c r="G6" t="n">
-        <v>401317.0026491089</v>
+        <v>401317.002649109</v>
       </c>
       <c r="H6" t="n">
-        <v>440283.9660268088</v>
+        <v>440283.9660268079</v>
       </c>
       <c r="I6" t="n">
-        <v>440283.9660268081</v>
+        <v>440283.9660268086</v>
       </c>
       <c r="J6" t="n">
-        <v>374877.7611940919</v>
+        <v>373426.3785751291</v>
       </c>
       <c r="K6" t="n">
-        <v>420677.180535943</v>
+        <v>419225.7979169806</v>
       </c>
       <c r="L6" t="n">
-        <v>362350.0392714085</v>
+        <v>362350.0392714089</v>
       </c>
       <c r="M6" t="n">
-        <v>271967.2916095629</v>
+        <v>271967.2916095624</v>
       </c>
       <c r="N6" t="n">
-        <v>440283.9660268081</v>
+        <v>440283.9660268079</v>
       </c>
       <c r="O6" t="n">
-        <v>417769.4052853817</v>
+        <v>416113.3856588578</v>
       </c>
       <c r="P6" t="n">
-        <v>417769.4052853814</v>
+        <v>416113.3856588576</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="F2" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="G2" t="n">
         <v>150.7606821950205</v>
@@ -26724,10 +26724,10 @@
         <v>150.7606821950205</v>
       </c>
       <c r="O2" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="P2" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
     </row>
     <row r="3">
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139.5033001704577</v>
+        <v>139.5033001704575</v>
       </c>
       <c r="F3" t="n">
-        <v>139.5033001704577</v>
+        <v>139.5033001704576</v>
       </c>
       <c r="G3" t="n">
-        <v>139.5033001704577</v>
+        <v>139.5033001704576</v>
       </c>
       <c r="H3" t="n">
         <v>139.5033001704576</v>
@@ -26798,10 +26798,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="E4" t="n">
-        <v>687.3601727972924</v>
+        <v>687.3601727972923</v>
       </c>
       <c r="F4" t="n">
-        <v>687.3601727972924</v>
+        <v>687.3601727972923</v>
       </c>
       <c r="G4" t="n">
         <v>687.3601727972924</v>
@@ -26810,19 +26810,19 @@
         <v>687.3601727972924</v>
       </c>
       <c r="I4" t="n">
-        <v>687.3601727972923</v>
+        <v>687.3601727972924</v>
       </c>
       <c r="J4" t="n">
-        <v>687.3601727972923</v>
+        <v>687.3601727972924</v>
       </c>
       <c r="K4" t="n">
-        <v>687.3601727972923</v>
+        <v>687.3601727972924</v>
       </c>
       <c r="L4" t="n">
-        <v>687.3601727972923</v>
+        <v>687.3601727972924</v>
       </c>
       <c r="M4" t="n">
-        <v>687.3601727972923</v>
+        <v>687.3601727972924</v>
       </c>
       <c r="N4" t="n">
         <v>687.3601727972923</v>
@@ -26916,34 +26916,34 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>48.70870422212471</v>
+        <v>48.70870422212469</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>53.34327375077098</v>
+        <v>53.34327375077102</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139.5033001704577</v>
+        <v>139.5033001704575</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>675.4172261169385</v>
+        <v>675.4172261169384</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>675.4172261169384</v>
+        <v>675.4172261169387</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48.70870422212471</v>
+        <v>48.70870422212469</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.34327375077098</v>
+        <v>53.34327375077102</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>675.4172261169385</v>
+        <v>675.4172261169384</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>378.8949160146003</v>
       </c>
       <c r="F2" t="n">
         <v>399.4903313468757</v>
@@ -27435,7 +27435,7 @@
         <v>210.172410125945</v>
       </c>
       <c r="U2" t="n">
-        <v>240.393536242792</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -27463,13 +27463,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>126.9309032036343</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>133.6147831633436</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>121.4039133892705</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>47.24347953564978</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>139.3285454370332</v>
       </c>
       <c r="T3" t="n">
-        <v>174.8553061153208</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>205.7904970416172</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -27539,10 +27539,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>155.9768631625826</v>
       </c>
       <c r="D4" t="n">
-        <v>139.598227560161</v>
+        <v>141.0218268044592</v>
       </c>
       <c r="E4" t="n">
         <v>150.4889240962943</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>26.20902125249397</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27596,13 +27596,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>246.1850047168077</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>271.351890787421</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>218.4205920275223</v>
+        <v>216.9969927832241</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27621,13 +27621,13 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>357.1527784446948</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>378.8949160146003</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>399.4903313468757</v>
+        <v>398.0667321025775</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,13 +27666,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>174.8373381798939</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>240.393536242792</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -27703,19 +27703,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>133.6147831633436</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>121.4039133892705</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>115.4982682965944</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>88.41913144271324</v>
+        <v>86.99553219841505</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>55.75551577648572</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>139.3285454370332</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>176.2789053596189</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -27779,25 +27779,25 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>139.598227560161</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>139.9695766602387</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>139.0129017441268</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>145.835972088165</v>
       </c>
       <c r="I7" t="n">
-        <v>132.2416665172925</v>
+        <v>130.8180672729944</v>
       </c>
       <c r="J7" t="n">
-        <v>47.51371951961512</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.20902125249397</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>378.1601574424851</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>367.595073644465</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>358.576377688993</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>378.8949160146003</v>
       </c>
       <c r="F8" t="n">
         <v>398.0667321025775</v>
@@ -27937,19 +27937,19 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>126.9309032036343</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>133.6147831633436</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>121.4039133892705</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>86.99553219841505</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>47.24347953564978</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>139.3285454370332</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>174.8553061153208</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>205.7904970416172</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -28025,13 +28025,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>156.7112037097728</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>145.835972088165</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>130.8180672729944</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>47.51371951961512</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>26.20902125249397</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>136.0836168914117</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>201.0533175342936</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="C11" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="D11" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="E11" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="F11" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="G11" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="H11" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="I11" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28137,28 +28137,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.50346472721567</v>
+        <v>54.50346472721571</v>
       </c>
       <c r="S11" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="T11" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="U11" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="V11" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="W11" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="X11" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="C13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="D13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="E13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="F13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="G13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="H13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="I13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="J13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="L13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="M13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="N13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="O13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="P13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="R13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="S13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="T13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="U13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="V13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="W13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="X13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="C14" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="D14" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="E14" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="F14" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="G14" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="H14" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="I14" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28374,28 +28374,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.50346472721567</v>
+        <v>54.50346472721571</v>
       </c>
       <c r="S14" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="T14" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="U14" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="V14" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="W14" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="X14" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="C16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="D16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="E16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="F16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="G16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="H16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="I16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="J16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="L16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="M16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="N16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="O16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728954</v>
       </c>
       <c r="P16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="R16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="S16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="T16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="U16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="V16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="W16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="X16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728958</v>
       </c>
     </row>
     <row r="17">
@@ -28611,7 +28611,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.50346472721567</v>
+        <v>54.50346472721569</v>
       </c>
       <c r="S17" t="n">
         <v>150.7606821950205</v>
@@ -28739,13 +28739,13 @@
         <v>150.7606821950205</v>
       </c>
       <c r="H19" t="n">
-        <v>143.8836837193965</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="I19" t="n">
         <v>135.1958185932847</v>
       </c>
       <c r="J19" t="n">
-        <v>41.67113889790917</v>
+        <v>41.67113889790919</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28766,13 +28766,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.08696960710874</v>
+        <v>17.08696960710875</v>
       </c>
       <c r="R19" t="n">
         <v>136.7153615612232</v>
       </c>
       <c r="S19" t="n">
-        <v>150.7606821950205</v>
+        <v>143.8836837193965</v>
       </c>
       <c r="T19" t="n">
         <v>150.7606821950205</v>
@@ -29195,7 +29195,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>150.7606821950205</v>
+        <v>143.8836837193961</v>
       </c>
       <c r="C25" t="n">
         <v>150.7606821950205</v>
@@ -29210,7 +29210,7 @@
         <v>150.7606821950205</v>
       </c>
       <c r="G25" t="n">
-        <v>143.8836837193961</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="H25" t="n">
         <v>150.7606821950205</v>
@@ -29921,7 +29921,7 @@
         <v>150.7606821950205</v>
       </c>
       <c r="G34" t="n">
-        <v>143.8836837193957</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="H34" t="n">
         <v>150.7606821950205</v>
@@ -29957,7 +29957,7 @@
         <v>136.7153615612232</v>
       </c>
       <c r="S34" t="n">
-        <v>150.7606821950205</v>
+        <v>143.8836837193959</v>
       </c>
       <c r="T34" t="n">
         <v>150.7606821950205</v>
@@ -30194,7 +30194,7 @@
         <v>136.7153615612232</v>
       </c>
       <c r="S37" t="n">
-        <v>150.7606821950205</v>
+        <v>143.8836837193961</v>
       </c>
       <c r="T37" t="n">
         <v>150.7606821950205</v>
@@ -30212,7 +30212,7 @@
         <v>150.7606821950205</v>
       </c>
       <c r="Y37" t="n">
-        <v>143.8836837193954</v>
+        <v>150.7606821950205</v>
       </c>
     </row>
     <row r="38">
@@ -30270,7 +30270,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.5034647272157</v>
+        <v>54.50346472721569</v>
       </c>
       <c r="S38" t="n">
         <v>150.7606821950205</v>
@@ -30425,7 +30425,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.08696960710876</v>
+        <v>10.2099711314841</v>
       </c>
       <c r="R40" t="n">
         <v>136.7153615612232</v>
@@ -30440,7 +30440,7 @@
         <v>150.7606821950205</v>
       </c>
       <c r="V40" t="n">
-        <v>143.8836837193961</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="W40" t="n">
         <v>150.7606821950205</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="C41" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="D41" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="E41" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="F41" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="G41" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="H41" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="I41" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.5034647272157</v>
+        <v>54.50346472721569</v>
       </c>
       <c r="S41" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="T41" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="U41" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="V41" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="W41" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="X41" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="C43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="D43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="E43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="F43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="G43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="H43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="I43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="J43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="K43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="L43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="M43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="N43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="O43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="P43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="R43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="S43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="T43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="U43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="V43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="W43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="X43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424949</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="C44" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="D44" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="E44" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="F44" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="G44" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="H44" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="I44" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30744,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.5034647272157</v>
+        <v>54.50346472721569</v>
       </c>
       <c r="S44" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="T44" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="U44" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="V44" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="W44" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="X44" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="C46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="D46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="E46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="F46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="G46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="H46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="I46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="J46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="K46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="L46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="M46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="N46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="O46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="P46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="R46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="S46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="T46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="U46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="V46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="W46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="X46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.41740844424947</v>
+        <v>97.41740844424952</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5608172871174175</v>
+        <v>0.5608172871174169</v>
       </c>
       <c r="H11" t="n">
-        <v>5.743470041691254</v>
+        <v>5.743470041691247</v>
       </c>
       <c r="I11" t="n">
-        <v>21.62090846159426</v>
+        <v>21.62090846159423</v>
       </c>
       <c r="J11" t="n">
-        <v>47.59866622248196</v>
+        <v>47.5986662224819</v>
       </c>
       <c r="K11" t="n">
-        <v>71.33806198616226</v>
+        <v>71.33806198616217</v>
       </c>
       <c r="L11" t="n">
-        <v>88.50117403678195</v>
+        <v>88.50117403678183</v>
       </c>
       <c r="M11" t="n">
-        <v>98.47460846655632</v>
+        <v>98.47460846655619</v>
       </c>
       <c r="N11" t="n">
-        <v>100.0680305835787</v>
+        <v>100.0680305835786</v>
       </c>
       <c r="O11" t="n">
-        <v>94.49140368480487</v>
+        <v>94.49140368480474</v>
       </c>
       <c r="P11" t="n">
-        <v>80.6462269090936</v>
+        <v>80.6462269090935</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.56195781420107</v>
+        <v>60.56195781420099</v>
       </c>
       <c r="R11" t="n">
-        <v>35.22843891188951</v>
+        <v>35.22843891188947</v>
       </c>
       <c r="S11" t="n">
-        <v>12.77962393018817</v>
+        <v>12.77962393018815</v>
       </c>
       <c r="T11" t="n">
-        <v>2.454977674356496</v>
+        <v>2.454977674356494</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04486538296939339</v>
+        <v>0.04486538296939334</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3000637022534374</v>
+        <v>0.300063702253437</v>
       </c>
       <c r="H12" t="n">
-        <v>2.89798365071083</v>
+        <v>2.897983650710826</v>
       </c>
       <c r="I12" t="n">
-        <v>10.33114062583107</v>
+        <v>10.33114062583106</v>
       </c>
       <c r="J12" t="n">
-        <v>28.34943951860217</v>
+        <v>28.34943951860214</v>
       </c>
       <c r="K12" t="n">
-        <v>48.45370756958248</v>
+        <v>48.45370756958241</v>
       </c>
       <c r="L12" t="n">
-        <v>65.15198938621236</v>
+        <v>65.15198938621228</v>
       </c>
       <c r="M12" t="n">
-        <v>76.02929859289945</v>
+        <v>76.02929859289935</v>
       </c>
       <c r="N12" t="n">
-        <v>78.04156789441484</v>
+        <v>78.04156789441474</v>
       </c>
       <c r="O12" t="n">
-        <v>71.39278796553603</v>
+        <v>71.39278796553594</v>
       </c>
       <c r="P12" t="n">
-        <v>57.29900644171121</v>
+        <v>57.29900644171114</v>
       </c>
       <c r="Q12" t="n">
-        <v>38.30286837887738</v>
+        <v>38.30286837887733</v>
       </c>
       <c r="R12" t="n">
-        <v>18.63027091710378</v>
+        <v>18.63027091710375</v>
       </c>
       <c r="S12" t="n">
-        <v>5.573551662470642</v>
+        <v>5.573551662470635</v>
       </c>
       <c r="T12" t="n">
-        <v>1.209467291100477</v>
+        <v>1.209467291100476</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01974103304298931</v>
+        <v>0.01974103304298928</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2515633281762352</v>
+        <v>0.2515633281762349</v>
       </c>
       <c r="H13" t="n">
-        <v>2.236626681421438</v>
+        <v>2.236626681421436</v>
       </c>
       <c r="I13" t="n">
-        <v>7.565195360063512</v>
+        <v>7.565195360063503</v>
       </c>
       <c r="J13" t="n">
-        <v>17.78552730205983</v>
+        <v>17.7855273020598</v>
       </c>
       <c r="K13" t="n">
-        <v>29.22708485538441</v>
+        <v>29.22708485538438</v>
       </c>
       <c r="L13" t="n">
-        <v>37.40060608176501</v>
+        <v>37.40060608176496</v>
       </c>
       <c r="M13" t="n">
-        <v>39.4336951612984</v>
+        <v>39.43369516129835</v>
       </c>
       <c r="N13" t="n">
-        <v>38.49605002900518</v>
+        <v>38.49605002900513</v>
       </c>
       <c r="O13" t="n">
-        <v>35.55733296803733</v>
+        <v>35.55733296803729</v>
       </c>
       <c r="P13" t="n">
-        <v>30.42544107324211</v>
+        <v>30.42544107324207</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.06499832573911</v>
+        <v>21.06499832573909</v>
       </c>
       <c r="R13" t="n">
-        <v>11.31120201054235</v>
+        <v>11.31120201054234</v>
       </c>
       <c r="S13" t="n">
-        <v>4.384062728307661</v>
+        <v>4.384062728307656</v>
       </c>
       <c r="T13" t="n">
-        <v>1.074861493116641</v>
+        <v>1.07486149311664</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01372163608234012</v>
+        <v>0.0137216360823401</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5608172871174175</v>
+        <v>0.560817287117417</v>
       </c>
       <c r="H14" t="n">
-        <v>5.743470041691254</v>
+        <v>5.743470041691248</v>
       </c>
       <c r="I14" t="n">
-        <v>21.62090846159426</v>
+        <v>21.62090846159424</v>
       </c>
       <c r="J14" t="n">
-        <v>47.59866622248196</v>
+        <v>47.59866622248191</v>
       </c>
       <c r="K14" t="n">
-        <v>71.33806198616226</v>
+        <v>71.33806198616219</v>
       </c>
       <c r="L14" t="n">
-        <v>88.50117403678195</v>
+        <v>88.50117403678186</v>
       </c>
       <c r="M14" t="n">
-        <v>98.47460846655632</v>
+        <v>98.47460846655622</v>
       </c>
       <c r="N14" t="n">
-        <v>100.0680305835787</v>
+        <v>100.0680305835786</v>
       </c>
       <c r="O14" t="n">
-        <v>94.49140368480487</v>
+        <v>94.49140368480477</v>
       </c>
       <c r="P14" t="n">
-        <v>80.6462269090936</v>
+        <v>80.64622690909351</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.56195781420107</v>
+        <v>60.561957814201</v>
       </c>
       <c r="R14" t="n">
-        <v>35.22843891188951</v>
+        <v>35.22843891188948</v>
       </c>
       <c r="S14" t="n">
-        <v>12.77962393018817</v>
+        <v>12.77962393018815</v>
       </c>
       <c r="T14" t="n">
-        <v>2.454977674356496</v>
+        <v>2.454977674356494</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04486538296939339</v>
+        <v>0.04486538296939335</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3000637022534374</v>
+        <v>0.3000637022534371</v>
       </c>
       <c r="H15" t="n">
-        <v>2.89798365071083</v>
+        <v>2.897983650710827</v>
       </c>
       <c r="I15" t="n">
-        <v>10.33114062583107</v>
+        <v>10.33114062583106</v>
       </c>
       <c r="J15" t="n">
-        <v>28.34943951860217</v>
+        <v>28.34943951860214</v>
       </c>
       <c r="K15" t="n">
-        <v>48.45370756958248</v>
+        <v>48.45370756958243</v>
       </c>
       <c r="L15" t="n">
-        <v>65.15198938621236</v>
+        <v>65.15198938621229</v>
       </c>
       <c r="M15" t="n">
-        <v>76.02929859289945</v>
+        <v>76.02929859289937</v>
       </c>
       <c r="N15" t="n">
-        <v>78.04156789441484</v>
+        <v>78.04156789441475</v>
       </c>
       <c r="O15" t="n">
-        <v>71.39278796553603</v>
+        <v>71.39278796553596</v>
       </c>
       <c r="P15" t="n">
-        <v>57.29900644171121</v>
+        <v>57.29900644171116</v>
       </c>
       <c r="Q15" t="n">
-        <v>38.30286837887738</v>
+        <v>38.30286837887733</v>
       </c>
       <c r="R15" t="n">
-        <v>18.63027091710378</v>
+        <v>18.63027091710376</v>
       </c>
       <c r="S15" t="n">
-        <v>5.573551662470642</v>
+        <v>5.573551662470637</v>
       </c>
       <c r="T15" t="n">
-        <v>1.209467291100477</v>
+        <v>1.209467291100476</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01974103304298931</v>
+        <v>0.01974103304298929</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2515633281762352</v>
+        <v>0.2515633281762349</v>
       </c>
       <c r="H16" t="n">
-        <v>2.236626681421438</v>
+        <v>2.236626681421436</v>
       </c>
       <c r="I16" t="n">
-        <v>7.565195360063512</v>
+        <v>7.565195360063504</v>
       </c>
       <c r="J16" t="n">
-        <v>17.78552730205983</v>
+        <v>17.78552730205981</v>
       </c>
       <c r="K16" t="n">
-        <v>29.22708485538441</v>
+        <v>29.22708485538438</v>
       </c>
       <c r="L16" t="n">
-        <v>37.40060608176501</v>
+        <v>37.40060608176498</v>
       </c>
       <c r="M16" t="n">
-        <v>39.4336951612984</v>
+        <v>39.43369516129835</v>
       </c>
       <c r="N16" t="n">
-        <v>38.49605002900518</v>
+        <v>38.49605002900515</v>
       </c>
       <c r="O16" t="n">
-        <v>35.55733296803733</v>
+        <v>35.55733296803729</v>
       </c>
       <c r="P16" t="n">
-        <v>30.42544107324211</v>
+        <v>30.42544107324208</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.06499832573911</v>
+        <v>21.06499832573909</v>
       </c>
       <c r="R16" t="n">
-        <v>11.31120201054235</v>
+        <v>11.31120201054234</v>
       </c>
       <c r="S16" t="n">
-        <v>4.384062728307661</v>
+        <v>4.384062728307657</v>
       </c>
       <c r="T16" t="n">
-        <v>1.074861493116641</v>
+        <v>1.07486149311664</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01372163608234012</v>
+        <v>0.0137216360823401</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5608172871174175</v>
+        <v>0.5608172871174172</v>
       </c>
       <c r="H17" t="n">
-        <v>5.743470041691254</v>
+        <v>5.743470041691251</v>
       </c>
       <c r="I17" t="n">
-        <v>21.62090846159426</v>
+        <v>21.62090846159425</v>
       </c>
       <c r="J17" t="n">
-        <v>47.59866622248196</v>
+        <v>47.59866622248193</v>
       </c>
       <c r="K17" t="n">
-        <v>71.33806198616226</v>
+        <v>71.33806198616222</v>
       </c>
       <c r="L17" t="n">
-        <v>88.50117403678195</v>
+        <v>88.50117403678189</v>
       </c>
       <c r="M17" t="n">
-        <v>98.47460846655632</v>
+        <v>98.47460846655625</v>
       </c>
       <c r="N17" t="n">
-        <v>100.0680305835787</v>
+        <v>100.0680305835786</v>
       </c>
       <c r="O17" t="n">
-        <v>94.49140368480487</v>
+        <v>94.49140368480481</v>
       </c>
       <c r="P17" t="n">
-        <v>80.6462269090936</v>
+        <v>80.64622690909356</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.56195781420107</v>
+        <v>60.56195781420103</v>
       </c>
       <c r="R17" t="n">
-        <v>35.22843891188951</v>
+        <v>35.22843891188949</v>
       </c>
       <c r="S17" t="n">
-        <v>12.77962393018817</v>
+        <v>12.77962393018816</v>
       </c>
       <c r="T17" t="n">
-        <v>2.454977674356496</v>
+        <v>2.454977674356495</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04486538296939339</v>
+        <v>0.04486538296939337</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3000637022534374</v>
+        <v>0.3000637022534372</v>
       </c>
       <c r="H18" t="n">
-        <v>2.89798365071083</v>
+        <v>2.897983650710828</v>
       </c>
       <c r="I18" t="n">
-        <v>10.33114062583107</v>
+        <v>10.33114062583106</v>
       </c>
       <c r="J18" t="n">
-        <v>28.34943951860217</v>
+        <v>28.34943951860215</v>
       </c>
       <c r="K18" t="n">
-        <v>48.45370756958248</v>
+        <v>48.45370756958245</v>
       </c>
       <c r="L18" t="n">
-        <v>65.15198938621236</v>
+        <v>65.15198938621232</v>
       </c>
       <c r="M18" t="n">
-        <v>76.02929859289945</v>
+        <v>76.02929859289939</v>
       </c>
       <c r="N18" t="n">
-        <v>78.04156789441484</v>
+        <v>78.0415678944148</v>
       </c>
       <c r="O18" t="n">
-        <v>71.39278796553603</v>
+        <v>71.39278796553599</v>
       </c>
       <c r="P18" t="n">
-        <v>57.29900644171121</v>
+        <v>57.29900644171118</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.30286837887738</v>
+        <v>38.30286837887736</v>
       </c>
       <c r="R18" t="n">
-        <v>18.63027091710378</v>
+        <v>18.63027091710376</v>
       </c>
       <c r="S18" t="n">
-        <v>5.573551662470642</v>
+        <v>5.573551662470638</v>
       </c>
       <c r="T18" t="n">
         <v>1.209467291100477</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01974103304298931</v>
+        <v>0.0197410330429893</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2515633281762352</v>
+        <v>0.2515633281762351</v>
       </c>
       <c r="H19" t="n">
-        <v>2.236626681421438</v>
+        <v>2.236626681421437</v>
       </c>
       <c r="I19" t="n">
-        <v>7.565195360063512</v>
+        <v>7.565195360063507</v>
       </c>
       <c r="J19" t="n">
-        <v>17.78552730205983</v>
+        <v>17.78552730205982</v>
       </c>
       <c r="K19" t="n">
-        <v>29.22708485538441</v>
+        <v>29.22708485538439</v>
       </c>
       <c r="L19" t="n">
-        <v>37.40060608176501</v>
+        <v>37.40060608176499</v>
       </c>
       <c r="M19" t="n">
-        <v>39.4336951612984</v>
+        <v>39.43369516129837</v>
       </c>
       <c r="N19" t="n">
-        <v>38.49605002900518</v>
+        <v>38.49605002900516</v>
       </c>
       <c r="O19" t="n">
-        <v>35.55733296803733</v>
+        <v>35.55733296803731</v>
       </c>
       <c r="P19" t="n">
-        <v>30.42544107324211</v>
+        <v>30.42544107324209</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.06499832573911</v>
+        <v>21.0649983257391</v>
       </c>
       <c r="R19" t="n">
         <v>11.31120201054235</v>
       </c>
       <c r="S19" t="n">
-        <v>4.384062728307661</v>
+        <v>4.384062728307659</v>
       </c>
       <c r="T19" t="n">
-        <v>1.074861493116641</v>
+        <v>1.07486149311664</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01372163608234012</v>
+        <v>0.01372163608234011</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5608172871174171</v>
+        <v>0.5608172871174172</v>
       </c>
       <c r="H38" t="n">
-        <v>5.743470041691249</v>
+        <v>5.743470041691251</v>
       </c>
       <c r="I38" t="n">
-        <v>21.62090846159424</v>
+        <v>21.62090846159425</v>
       </c>
       <c r="J38" t="n">
-        <v>47.59866622248192</v>
+        <v>47.59866622248193</v>
       </c>
       <c r="K38" t="n">
-        <v>71.3380619861622</v>
+        <v>71.33806198616222</v>
       </c>
       <c r="L38" t="n">
-        <v>88.50117403678188</v>
+        <v>88.50117403678189</v>
       </c>
       <c r="M38" t="n">
-        <v>98.47460846655623</v>
+        <v>98.47460846655625</v>
       </c>
       <c r="N38" t="n">
         <v>100.0680305835786</v>
       </c>
       <c r="O38" t="n">
-        <v>94.49140368480478</v>
+        <v>94.49140368480481</v>
       </c>
       <c r="P38" t="n">
-        <v>80.64622690909354</v>
+        <v>80.64622690909356</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.56195781420102</v>
+        <v>60.56195781420103</v>
       </c>
       <c r="R38" t="n">
-        <v>35.22843891188948</v>
+        <v>35.22843891188949</v>
       </c>
       <c r="S38" t="n">
-        <v>12.77962393018815</v>
+        <v>12.77962393018816</v>
       </c>
       <c r="T38" t="n">
         <v>2.454977674356495</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04486538296939336</v>
+        <v>0.04486538296939337</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3000637022534371</v>
+        <v>0.3000637022534372</v>
       </c>
       <c r="H39" t="n">
-        <v>2.897983650710827</v>
+        <v>2.897983650710828</v>
       </c>
       <c r="I39" t="n">
         <v>10.33114062583106</v>
@@ -33976,25 +33976,25 @@
         <v>28.34943951860215</v>
       </c>
       <c r="K39" t="n">
-        <v>48.45370756958243</v>
+        <v>48.45370756958245</v>
       </c>
       <c r="L39" t="n">
-        <v>65.15198938621231</v>
+        <v>65.15198938621232</v>
       </c>
       <c r="M39" t="n">
-        <v>76.02929859289938</v>
+        <v>76.02929859289939</v>
       </c>
       <c r="N39" t="n">
-        <v>78.04156789441477</v>
+        <v>78.0415678944148</v>
       </c>
       <c r="O39" t="n">
-        <v>71.39278796553597</v>
+        <v>71.39278796553599</v>
       </c>
       <c r="P39" t="n">
-        <v>57.29900644171117</v>
+        <v>57.29900644171118</v>
       </c>
       <c r="Q39" t="n">
-        <v>38.30286837887735</v>
+        <v>38.30286837887736</v>
       </c>
       <c r="R39" t="n">
         <v>18.63027091710376</v>
@@ -34003,10 +34003,10 @@
         <v>5.573551662470638</v>
       </c>
       <c r="T39" t="n">
-        <v>1.209467291100476</v>
+        <v>1.209467291100477</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01974103304298929</v>
+        <v>0.0197410330429893</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,34 +34043,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.251563328176235</v>
+        <v>0.2515633281762351</v>
       </c>
       <c r="H40" t="n">
-        <v>2.236626681421436</v>
+        <v>2.236626681421437</v>
       </c>
       <c r="I40" t="n">
-        <v>7.565195360063506</v>
+        <v>7.565195360063507</v>
       </c>
       <c r="J40" t="n">
-        <v>17.78552730205981</v>
+        <v>17.78552730205982</v>
       </c>
       <c r="K40" t="n">
         <v>29.22708485538439</v>
       </c>
       <c r="L40" t="n">
-        <v>37.40060608176498</v>
+        <v>37.40060608176499</v>
       </c>
       <c r="M40" t="n">
-        <v>39.43369516129836</v>
+        <v>39.43369516129837</v>
       </c>
       <c r="N40" t="n">
-        <v>38.49605002900515</v>
+        <v>38.49605002900516</v>
       </c>
       <c r="O40" t="n">
-        <v>35.5573329680373</v>
+        <v>35.55733296803731</v>
       </c>
       <c r="P40" t="n">
-        <v>30.42544107324208</v>
+        <v>30.42544107324209</v>
       </c>
       <c r="Q40" t="n">
         <v>21.0649983257391</v>
@@ -34079,7 +34079,7 @@
         <v>11.31120201054235</v>
       </c>
       <c r="S40" t="n">
-        <v>4.384062728307658</v>
+        <v>4.384062728307659</v>
       </c>
       <c r="T40" t="n">
         <v>1.07486149311664</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5608172871174171</v>
+        <v>0.5608172871174172</v>
       </c>
       <c r="H41" t="n">
-        <v>5.743470041691249</v>
+        <v>5.743470041691251</v>
       </c>
       <c r="I41" t="n">
-        <v>21.62090846159424</v>
+        <v>21.62090846159425</v>
       </c>
       <c r="J41" t="n">
-        <v>47.59866622248192</v>
+        <v>47.59866622248193</v>
       </c>
       <c r="K41" t="n">
-        <v>71.3380619861622</v>
+        <v>71.33806198616222</v>
       </c>
       <c r="L41" t="n">
-        <v>88.50117403678188</v>
+        <v>88.50117403678189</v>
       </c>
       <c r="M41" t="n">
-        <v>98.47460846655623</v>
+        <v>98.47460846655625</v>
       </c>
       <c r="N41" t="n">
         <v>100.0680305835786</v>
       </c>
       <c r="O41" t="n">
-        <v>94.49140368480478</v>
+        <v>94.49140368480481</v>
       </c>
       <c r="P41" t="n">
-        <v>80.64622690909354</v>
+        <v>80.64622690909356</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.56195781420102</v>
+        <v>60.56195781420103</v>
       </c>
       <c r="R41" t="n">
-        <v>35.22843891188948</v>
+        <v>35.22843891188949</v>
       </c>
       <c r="S41" t="n">
-        <v>12.77962393018815</v>
+        <v>12.77962393018816</v>
       </c>
       <c r="T41" t="n">
         <v>2.454977674356495</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04486538296939336</v>
+        <v>0.04486538296939337</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3000637022534371</v>
+        <v>0.3000637022534372</v>
       </c>
       <c r="H42" t="n">
-        <v>2.897983650710827</v>
+        <v>2.897983650710828</v>
       </c>
       <c r="I42" t="n">
         <v>10.33114062583106</v>
@@ -34213,25 +34213,25 @@
         <v>28.34943951860215</v>
       </c>
       <c r="K42" t="n">
-        <v>48.45370756958243</v>
+        <v>48.45370756958245</v>
       </c>
       <c r="L42" t="n">
-        <v>65.15198938621231</v>
+        <v>65.15198938621232</v>
       </c>
       <c r="M42" t="n">
-        <v>76.02929859289938</v>
+        <v>76.02929859289939</v>
       </c>
       <c r="N42" t="n">
-        <v>78.04156789441477</v>
+        <v>78.0415678944148</v>
       </c>
       <c r="O42" t="n">
-        <v>71.39278796553597</v>
+        <v>71.39278796553599</v>
       </c>
       <c r="P42" t="n">
-        <v>57.29900644171117</v>
+        <v>57.29900644171118</v>
       </c>
       <c r="Q42" t="n">
-        <v>38.30286837887735</v>
+        <v>38.30286837887736</v>
       </c>
       <c r="R42" t="n">
         <v>18.63027091710376</v>
@@ -34240,10 +34240,10 @@
         <v>5.573551662470638</v>
       </c>
       <c r="T42" t="n">
-        <v>1.209467291100476</v>
+        <v>1.209467291100477</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01974103304298929</v>
+        <v>0.0197410330429893</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,34 +34280,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.251563328176235</v>
+        <v>0.2515633281762351</v>
       </c>
       <c r="H43" t="n">
-        <v>2.236626681421436</v>
+        <v>2.236626681421437</v>
       </c>
       <c r="I43" t="n">
-        <v>7.565195360063506</v>
+        <v>7.565195360063507</v>
       </c>
       <c r="J43" t="n">
-        <v>17.78552730205981</v>
+        <v>17.78552730205982</v>
       </c>
       <c r="K43" t="n">
         <v>29.22708485538439</v>
       </c>
       <c r="L43" t="n">
-        <v>37.40060608176498</v>
+        <v>37.40060608176499</v>
       </c>
       <c r="M43" t="n">
-        <v>39.43369516129836</v>
+        <v>39.43369516129837</v>
       </c>
       <c r="N43" t="n">
-        <v>38.49605002900515</v>
+        <v>38.49605002900516</v>
       </c>
       <c r="O43" t="n">
-        <v>35.5573329680373</v>
+        <v>35.55733296803731</v>
       </c>
       <c r="P43" t="n">
-        <v>30.42544107324208</v>
+        <v>30.42544107324209</v>
       </c>
       <c r="Q43" t="n">
         <v>21.0649983257391</v>
@@ -34316,7 +34316,7 @@
         <v>11.31120201054235</v>
       </c>
       <c r="S43" t="n">
-        <v>4.384062728307658</v>
+        <v>4.384062728307659</v>
       </c>
       <c r="T43" t="n">
         <v>1.07486149311664</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5608172871174171</v>
+        <v>0.5608172871174172</v>
       </c>
       <c r="H44" t="n">
-        <v>5.743470041691249</v>
+        <v>5.743470041691251</v>
       </c>
       <c r="I44" t="n">
-        <v>21.62090846159424</v>
+        <v>21.62090846159425</v>
       </c>
       <c r="J44" t="n">
-        <v>47.59866622248192</v>
+        <v>47.59866622248193</v>
       </c>
       <c r="K44" t="n">
-        <v>71.3380619861622</v>
+        <v>71.33806198616222</v>
       </c>
       <c r="L44" t="n">
-        <v>88.50117403678188</v>
+        <v>88.50117403678189</v>
       </c>
       <c r="M44" t="n">
-        <v>98.47460846655623</v>
+        <v>98.47460846655625</v>
       </c>
       <c r="N44" t="n">
         <v>100.0680305835786</v>
       </c>
       <c r="O44" t="n">
-        <v>94.49140368480478</v>
+        <v>94.49140368480481</v>
       </c>
       <c r="P44" t="n">
-        <v>80.64622690909354</v>
+        <v>80.64622690909356</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.56195781420102</v>
+        <v>60.56195781420103</v>
       </c>
       <c r="R44" t="n">
-        <v>35.22843891188948</v>
+        <v>35.22843891188949</v>
       </c>
       <c r="S44" t="n">
-        <v>12.77962393018815</v>
+        <v>12.77962393018816</v>
       </c>
       <c r="T44" t="n">
         <v>2.454977674356495</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04486538296939336</v>
+        <v>0.04486538296939337</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3000637022534371</v>
+        <v>0.3000637022534372</v>
       </c>
       <c r="H45" t="n">
-        <v>2.897983650710827</v>
+        <v>2.897983650710828</v>
       </c>
       <c r="I45" t="n">
         <v>10.33114062583106</v>
@@ -34450,25 +34450,25 @@
         <v>28.34943951860215</v>
       </c>
       <c r="K45" t="n">
-        <v>48.45370756958243</v>
+        <v>48.45370756958245</v>
       </c>
       <c r="L45" t="n">
-        <v>65.15198938621231</v>
+        <v>65.15198938621232</v>
       </c>
       <c r="M45" t="n">
-        <v>76.02929859289938</v>
+        <v>76.02929859289939</v>
       </c>
       <c r="N45" t="n">
-        <v>78.04156789441477</v>
+        <v>78.0415678944148</v>
       </c>
       <c r="O45" t="n">
-        <v>71.39278796553597</v>
+        <v>71.39278796553599</v>
       </c>
       <c r="P45" t="n">
-        <v>57.29900644171117</v>
+        <v>57.29900644171118</v>
       </c>
       <c r="Q45" t="n">
-        <v>38.30286837887735</v>
+        <v>38.30286837887736</v>
       </c>
       <c r="R45" t="n">
         <v>18.63027091710376</v>
@@ -34477,10 +34477,10 @@
         <v>5.573551662470638</v>
       </c>
       <c r="T45" t="n">
-        <v>1.209467291100476</v>
+        <v>1.209467291100477</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01974103304298929</v>
+        <v>0.0197410330429893</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,34 +34517,34 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.251563328176235</v>
+        <v>0.2515633281762351</v>
       </c>
       <c r="H46" t="n">
-        <v>2.236626681421436</v>
+        <v>2.236626681421437</v>
       </c>
       <c r="I46" t="n">
-        <v>7.565195360063506</v>
+        <v>7.565195360063507</v>
       </c>
       <c r="J46" t="n">
-        <v>17.78552730205981</v>
+        <v>17.78552730205982</v>
       </c>
       <c r="K46" t="n">
         <v>29.22708485538439</v>
       </c>
       <c r="L46" t="n">
-        <v>37.40060608176498</v>
+        <v>37.40060608176499</v>
       </c>
       <c r="M46" t="n">
-        <v>39.43369516129836</v>
+        <v>39.43369516129837</v>
       </c>
       <c r="N46" t="n">
-        <v>38.49605002900515</v>
+        <v>38.49605002900516</v>
       </c>
       <c r="O46" t="n">
-        <v>35.5573329680373</v>
+        <v>35.55733296803731</v>
       </c>
       <c r="P46" t="n">
-        <v>30.42544107324208</v>
+        <v>30.42544107324209</v>
       </c>
       <c r="Q46" t="n">
         <v>21.0649983257391</v>
@@ -34553,7 +34553,7 @@
         <v>11.31120201054235</v>
       </c>
       <c r="S46" t="n">
-        <v>4.384062728307658</v>
+        <v>4.384062728307659</v>
       </c>
       <c r="T46" t="n">
         <v>1.07486149311664</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>11.94294668035388</v>
@@ -34719,7 +34719,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.46040338013756</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,14 +34777,14 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="L3" t="n">
         <v>11.46040338013756</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>11.94294668035388</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="N4" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11.46040338013756</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="P6" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>11.46040338013756</v>
-      </c>
-      <c r="M7" t="n">
-        <v>11.94294668035388</v>
       </c>
       <c r="N7" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="P7" t="n">
         <v>11.94294668035388</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="K8" t="n">
-        <v>11.46040338013756</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L8" t="n">
         <v>11.94294668035388</v>
@@ -35184,7 +35184,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="N8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>11.94294668035388</v>
@@ -35272,7 +35272,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="L10" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="N10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>120.3244685182453</v>
+        <v>120.3244685182452</v>
       </c>
       <c r="K11" t="n">
-        <v>313.9040943546297</v>
+        <v>313.9040943546296</v>
       </c>
       <c r="L11" t="n">
-        <v>439.9005407892529</v>
+        <v>439.9005407892528</v>
       </c>
       <c r="M11" t="n">
-        <v>495.6858875100795</v>
+        <v>495.6858875100794</v>
       </c>
       <c r="N11" t="n">
-        <v>482.2209181469279</v>
+        <v>482.2209181469278</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5768425462533</v>
+        <v>402.5768425462531</v>
       </c>
       <c r="P11" t="n">
-        <v>311.1077384808646</v>
+        <v>311.1077384808644</v>
       </c>
       <c r="Q11" t="n">
-        <v>155.9480726490869</v>
+        <v>155.9480726490868</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>89.21221379446696</v>
+        <v>89.21221379446693</v>
       </c>
       <c r="K12" t="n">
-        <v>227.0186054922071</v>
+        <v>280.262346519268</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>434.6690047095614</v>
       </c>
       <c r="M12" t="n">
         <v>565.9619789062594</v>
       </c>
       <c r="N12" t="n">
-        <v>594.471513473326</v>
+        <v>594.4715134733259</v>
       </c>
       <c r="O12" t="n">
-        <v>467.5543544141733</v>
+        <v>177.3097596681404</v>
       </c>
       <c r="P12" t="n">
-        <v>362.4463996494862</v>
+        <v>362.4463996494861</v>
       </c>
       <c r="Q12" t="n">
-        <v>197.6681509905887</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.38083907498657</v>
+        <v>60.38083907498656</v>
       </c>
       <c r="K13" t="n">
         <v>165.2226868127684</v>
@@ -35576,7 +35576,7 @@
         <v>241.0758965801754</v>
       </c>
       <c r="M13" t="n">
-        <v>260.6710328590444</v>
+        <v>260.6710328590443</v>
       </c>
       <c r="N13" t="n">
         <v>260.1665550216993</v>
@@ -35585,10 +35585,10 @@
         <v>237.067539724458</v>
       </c>
       <c r="P13" t="n">
-        <v>196.0819480644589</v>
+        <v>196.0819480644588</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.965008365787</v>
+        <v>84.96500836578699</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>120.3244685182453</v>
+        <v>120.3244685182452</v>
       </c>
       <c r="K14" t="n">
-        <v>313.9040943546297</v>
+        <v>313.9040943546296</v>
       </c>
       <c r="L14" t="n">
-        <v>439.9005407892529</v>
+        <v>439.9005407892528</v>
       </c>
       <c r="M14" t="n">
-        <v>495.6858875100795</v>
+        <v>495.6858875100794</v>
       </c>
       <c r="N14" t="n">
-        <v>482.2209181469279</v>
+        <v>482.2209181469278</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5768425462533</v>
+        <v>402.5768425462532</v>
       </c>
       <c r="P14" t="n">
-        <v>311.1077384808646</v>
+        <v>311.1077384808644</v>
       </c>
       <c r="Q14" t="n">
         <v>155.9480726490869</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>89.21221379446693</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>280.262346519268</v>
       </c>
       <c r="L15" t="n">
-        <v>434.6690047095615</v>
+        <v>434.6690047095614</v>
       </c>
       <c r="M15" t="n">
         <v>565.9619789062594</v>
       </c>
       <c r="N15" t="n">
-        <v>476.0333280504384</v>
+        <v>594.471513473326</v>
       </c>
       <c r="O15" t="n">
-        <v>467.5543544141733</v>
+        <v>467.5543544141732</v>
       </c>
       <c r="P15" t="n">
-        <v>362.4463996494862</v>
+        <v>72.20180490345329</v>
       </c>
       <c r="Q15" t="n">
-        <v>197.6681509905887</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35819,10 +35819,10 @@
         <v>260.1665550216993</v>
       </c>
       <c r="O16" t="n">
-        <v>237.067539724458</v>
+        <v>237.0675397244576</v>
       </c>
       <c r="P16" t="n">
-        <v>196.0819480644589</v>
+        <v>196.0819480644588</v>
       </c>
       <c r="Q16" t="n">
         <v>84.965008365787</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>120.3244685182453</v>
+        <v>120.3244685182452</v>
       </c>
       <c r="K17" t="n">
-        <v>313.9040943546297</v>
+        <v>313.9040943546296</v>
       </c>
       <c r="L17" t="n">
-        <v>439.9005407892529</v>
+        <v>439.9005407892528</v>
       </c>
       <c r="M17" t="n">
-        <v>495.6858875100795</v>
+        <v>495.6858875100794</v>
       </c>
       <c r="N17" t="n">
-        <v>482.2209181469279</v>
+        <v>482.2209181469283</v>
       </c>
       <c r="O17" t="n">
         <v>402.5768425462533</v>
       </c>
       <c r="P17" t="n">
-        <v>311.1077384808646</v>
+        <v>311.1077384808645</v>
       </c>
       <c r="Q17" t="n">
         <v>155.9480726490869</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>89.21221379446696</v>
+        <v>89.21221379446695</v>
       </c>
       <c r="K18" t="n">
         <v>280.262346519268</v>
@@ -35971,19 +35971,19 @@
         <v>434.6690047095615</v>
       </c>
       <c r="M18" t="n">
-        <v>565.9619789062594</v>
+        <v>78.04923316963747</v>
       </c>
       <c r="N18" t="n">
         <v>594.471513473326</v>
       </c>
       <c r="O18" t="n">
-        <v>467.5543544141733</v>
+        <v>467.5543544141732</v>
       </c>
       <c r="P18" t="n">
-        <v>72.20180490345284</v>
+        <v>362.4463996494862</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>197.6681509905887</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>63.17070883987271</v>
+        <v>63.17070883987269</v>
       </c>
       <c r="L19" t="n">
         <v>139.0239186072797</v>
@@ -36059,7 +36059,7 @@
         <v>135.0155617515622</v>
       </c>
       <c r="P19" t="n">
-        <v>94.02997009156311</v>
+        <v>94.02997009156309</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>89.21221379446695</v>
       </c>
       <c r="K21" t="n">
-        <v>280.262346519268</v>
+        <v>227.0186054922075</v>
       </c>
       <c r="L21" t="n">
-        <v>434.6690047095615</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>565.9619789062594</v>
@@ -36217,10 +36217,10 @@
         <v>467.5543544141732</v>
       </c>
       <c r="P21" t="n">
-        <v>161.4140186979195</v>
+        <v>362.4463996494862</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>197.6681509905887</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>89.21221379446695</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>280.262346519268</v>
       </c>
       <c r="L24" t="n">
-        <v>316.2308192866745</v>
+        <v>434.6690047095615</v>
       </c>
       <c r="M24" t="n">
         <v>565.9619789062594</v>
       </c>
       <c r="N24" t="n">
-        <v>594.471513473326</v>
+        <v>574.1131221508772</v>
       </c>
       <c r="O24" t="n">
-        <v>467.5543544141732</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>362.4463996494862</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>89.21221379446695</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>280.262346519268</v>
+        <v>79.22996556770168</v>
       </c>
       <c r="L27" t="n">
         <v>434.6690047095615</v>
       </c>
       <c r="M27" t="n">
-        <v>275.7173841602262</v>
+        <v>565.9619789062594</v>
       </c>
       <c r="N27" t="n">
         <v>594.471513473326</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.38083907498653</v>
+        <v>60.38083907498655</v>
       </c>
       <c r="K28" t="n">
         <v>165.2226868127684</v>
@@ -36764,7 +36764,7 @@
         <v>260.6710328590443</v>
       </c>
       <c r="N28" t="n">
-        <v>260.1665550216992</v>
+        <v>260.1665550216993</v>
       </c>
       <c r="O28" t="n">
         <v>237.067539724458</v>
@@ -36773,7 +36773,7 @@
         <v>196.0819480644588</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.96500836578696</v>
+        <v>84.96500836578699</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>89.21221379446695</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>280.262346519268</v>
@@ -36925,7 +36925,7 @@
         <v>594.471513473326</v>
       </c>
       <c r="O30" t="n">
-        <v>177.3097596681399</v>
+        <v>266.5219734626068</v>
       </c>
       <c r="P30" t="n">
         <v>362.4463996494862</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.38083907498655</v>
+        <v>60.38083907498653</v>
       </c>
       <c r="K31" t="n">
         <v>165.2226868127684</v>
@@ -37001,7 +37001,7 @@
         <v>260.6710328590443</v>
       </c>
       <c r="N31" t="n">
-        <v>260.1665550216993</v>
+        <v>260.1665550216992</v>
       </c>
       <c r="O31" t="n">
         <v>237.067539724458</v>
@@ -37010,7 +37010,7 @@
         <v>196.0819480644588</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.96500836578699</v>
+        <v>84.96500836578696</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>280.262346519268</v>
       </c>
       <c r="L33" t="n">
         <v>434.6690047095615</v>
@@ -37159,7 +37159,7 @@
         <v>565.9619789062594</v>
       </c>
       <c r="N33" t="n">
-        <v>594.471513473326</v>
+        <v>195.7709815311709</v>
       </c>
       <c r="O33" t="n">
         <v>467.5543544141732</v>
@@ -37168,7 +37168,7 @@
         <v>362.4463996494862</v>
       </c>
       <c r="Q33" t="n">
-        <v>79.2299655677014</v>
+        <v>197.6681509905887</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>120.324468518245</v>
+        <v>120.3244685182452</v>
       </c>
       <c r="K35" t="n">
         <v>313.9040943546296</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>89.21221379446695</v>
       </c>
       <c r="K36" t="n">
-        <v>79.2299655677017</v>
+        <v>280.262346519268</v>
       </c>
       <c r="L36" t="n">
         <v>434.6690047095615</v>
@@ -37396,16 +37396,16 @@
         <v>565.9619789062594</v>
       </c>
       <c r="N36" t="n">
-        <v>594.471513473326</v>
+        <v>574.1131221508772</v>
       </c>
       <c r="O36" t="n">
-        <v>467.5543544141732</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>362.4463996494862</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>197.6681509905887</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>482.2209181469278</v>
       </c>
       <c r="O38" t="n">
-        <v>402.5768425462532</v>
+        <v>402.5768425462533</v>
       </c>
       <c r="P38" t="n">
-        <v>311.1077384808644</v>
+        <v>311.1077384808645</v>
       </c>
       <c r="Q38" t="n">
         <v>155.9480726490869</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>89.21221379446695</v>
       </c>
       <c r="K39" t="n">
-        <v>79.2299655677017</v>
+        <v>280.262346519268</v>
       </c>
       <c r="L39" t="n">
         <v>434.6690047095615</v>
@@ -37633,7 +37633,7 @@
         <v>565.9619789062594</v>
       </c>
       <c r="N39" t="n">
-        <v>594.471513473326</v>
+        <v>106.558767736704</v>
       </c>
       <c r="O39" t="n">
         <v>467.5543544141732</v>
@@ -37642,7 +37642,7 @@
         <v>362.4463996494862</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>197.6681509905887</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>63.17070883987269</v>
       </c>
       <c r="L40" t="n">
-        <v>139.0239186072796</v>
+        <v>139.0239186072797</v>
       </c>
       <c r="M40" t="n">
         <v>158.6190548861486</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>120.324468518245</v>
+        <v>120.3244685182452</v>
       </c>
       <c r="K41" t="n">
         <v>313.9040943546296</v>
       </c>
       <c r="L41" t="n">
-        <v>439.9005407892528</v>
+        <v>439.9005407892526</v>
       </c>
       <c r="M41" t="n">
         <v>495.6858875100794</v>
@@ -37794,10 +37794,10 @@
         <v>482.2209181469278</v>
       </c>
       <c r="O41" t="n">
-        <v>402.5768425462532</v>
+        <v>402.5768425462533</v>
       </c>
       <c r="P41" t="n">
-        <v>311.1077384808644</v>
+        <v>311.1077384808645</v>
       </c>
       <c r="Q41" t="n">
         <v>155.9480726490869</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>89.21221379446695</v>
       </c>
       <c r="K42" t="n">
         <v>280.262346519268</v>
@@ -37870,16 +37870,16 @@
         <v>565.9619789062594</v>
       </c>
       <c r="N42" t="n">
-        <v>594.471513473326</v>
+        <v>106.558767736704</v>
       </c>
       <c r="O42" t="n">
         <v>467.5543544141732</v>
       </c>
       <c r="P42" t="n">
-        <v>161.4140186979199</v>
+        <v>362.4463996494862</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>197.6681509905887</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>55.74626954634032</v>
+        <v>55.7462695463403</v>
       </c>
       <c r="K43" t="n">
         <v>160.5881172841222</v>
@@ -37958,7 +37958,7 @@
         <v>191.4473785358126</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.33043883714075</v>
+        <v>80.33043883714073</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>120.3244685182452</v>
+        <v>120.324468518245</v>
       </c>
       <c r="K44" t="n">
         <v>313.9040943546296</v>
       </c>
       <c r="L44" t="n">
-        <v>439.9005407892526</v>
+        <v>439.9005407892528</v>
       </c>
       <c r="M44" t="n">
         <v>495.6858875100794</v>
@@ -38031,10 +38031,10 @@
         <v>482.2209181469278</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5768425462532</v>
+        <v>402.5768425462533</v>
       </c>
       <c r="P44" t="n">
-        <v>311.1077384808644</v>
+        <v>311.1077384808645</v>
       </c>
       <c r="Q44" t="n">
         <v>155.9480726490869</v>
@@ -38104,10 +38104,10 @@
         <v>434.6690047095615</v>
       </c>
       <c r="M45" t="n">
-        <v>565.9619789062594</v>
+        <v>78.04923316963747</v>
       </c>
       <c r="N45" t="n">
-        <v>106.558767736704</v>
+        <v>594.471513473326</v>
       </c>
       <c r="O45" t="n">
         <v>467.5543544141732</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>55.74626954634029</v>
+        <v>55.74626954634033</v>
       </c>
       <c r="K46" t="n">
-        <v>160.5881172841221</v>
+        <v>160.5881172841222</v>
       </c>
       <c r="L46" t="n">
         <v>236.4413270515291</v>
@@ -38189,13 +38189,13 @@
         <v>255.531985493053</v>
       </c>
       <c r="O46" t="n">
-        <v>232.4329701958117</v>
+        <v>232.4329701958118</v>
       </c>
       <c r="P46" t="n">
         <v>191.4473785358126</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.33043883714072</v>
+        <v>80.33043883714076</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
